--- a/excel_routes/route_CAI_DMM_threats.xlsx
+++ b/excel_routes/route_CAI_DMM_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -547,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11341</v>
+        <v>11618</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>11858</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-517</v>
+        <v>-240</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -592,26 +583,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>11618</v>
+        <v>13345</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>11858</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-240</v>
+        <v>1487</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -637,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>14693</v>
+        <v>12929</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13155</v>
+        <v>14453</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1538</v>
+        <v>-1524</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -672,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -682,17 +673,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-133</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>11341</v>
+        <v>13597</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>14453</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-3112</v>
+        <v>-856</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -703,9 +694,9 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -717,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,17 +718,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>11618</v>
+        <v>12929</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>14453</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2835</v>
+        <v>-1524</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -748,9 +739,9 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -762,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -772,17 +763,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-152</t>
+          <t>Nile Air NP-133</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>12929</v>
+        <v>13597</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>14453</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1524</v>
+        <v>-856</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -807,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -817,17 +808,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-152</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10207</v>
+        <v>12929</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>10887</v>
+        <v>14453</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-680</v>
+        <v>-1524</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,26 +853,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>12450</v>
+        <v>9123</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>10887</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1563</v>
+        <v>-1764</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -897,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +898,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9119</v>
+        <v>10345</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>9904</v>
+        <v>10887</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-785</v>
+        <v>-542</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -942,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,26 +943,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8316</v>
+        <v>10345</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6792</v>
+        <v>10887</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1524</v>
+        <v>-542</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -987,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,26 +988,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8417</v>
+        <v>10345</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6792</v>
+        <v>10887</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1625</v>
+        <v>-542</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1032,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1033,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6293</v>
+        <v>7031</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>7434</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1141</v>
+        <v>-403</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1068,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1087,17 +1078,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6830</v>
+        <v>7031</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>7434</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-604</v>
+        <v>-403</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,7 +1113,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1136,13 +1127,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8316</v>
+        <v>9451</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>7434</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>882</v>
+        <v>2017</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1159,6 +1150,1311 @@
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>29-JAN-26</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-154</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7031</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-403</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>30-JAN-26</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>8417</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>6792</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-315</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>6764</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-670</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-154</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-604</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>9451</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>7926</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1727</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>7926</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1727</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>7926</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1727</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-687</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>8316</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>2117</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>8027</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1828</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>8316</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>2117</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-315</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>5116</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>-2318</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-855</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-1524</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-154</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>6830</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-604</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>8417</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>7434</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>983</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-131</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5985</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1349</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>6199</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1349</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-687</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>7649</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>2294</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-895</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>6666</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1311</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-687</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-683</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-895</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>6666</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1311</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>7649</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>2294</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>SM-433</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-681</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>5355</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_DMM_threats.xlsx
+++ b/excel_routes/route_CAI_DMM_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFF3CD"/>
         <bgColor rgb="00FFF3CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -560,13 +551,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8125</v>
+        <v>11614</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13151</v>
+        <v>14448</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-5026</v>
+        <v>-2834</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,30 +592,30 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9447</v>
+        <v>8742</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13151</v>
+        <v>9901</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-3704</v>
+        <v>-1159</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -636,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12773</v>
+        <v>8742</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13151</v>
+        <v>9901</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-378</v>
+        <v>-1159</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -667,7 +658,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,28 +682,28 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>11324</v>
+        <v>9233</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14448</v>
+        <v>9901</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-3124</v>
+        <v>-668</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,30 +727,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>11614</v>
+        <v>10568</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>14448</v>
+        <v>9901</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2834</v>
+        <v>667</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +776,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>12773</v>
+        <v>7797</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>14448</v>
+        <v>8087</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1675</v>
+        <v>-290</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -802,7 +793,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +821,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>12924</v>
+        <v>7029</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>14448</v>
+        <v>7432</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1524</v>
+        <v>-403</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,7 +838,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,28 +862,28 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>11324</v>
+        <v>6424</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>14448</v>
+        <v>6789</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-3124</v>
+        <v>-365</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,28 +907,28 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>12924</v>
+        <v>7923</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>14448</v>
+        <v>6789</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1524</v>
+        <v>1134</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -951,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,28 +952,28 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-152</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>12924</v>
+        <v>8414</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-227</v>
+        <v>1625</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -996,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>Nesma Airlines NE-152</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>12924</v>
+        <v>6424</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-227</v>
+        <v>-365</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,7 +1018,7 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1041,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>11614</v>
+        <v>6424</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1537</v>
+        <v>-365</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,7 +1063,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1086,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1087,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>12773</v>
+        <v>6449</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-378</v>
+        <v>-340</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1117,7 +1108,7 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,28 +1132,28 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8125</v>
+        <v>8314</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>8931</v>
+        <v>6789</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-806</v>
+        <v>1525</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1176,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,28 +1177,28 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>8125</v>
+        <v>8414</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8931</v>
+        <v>6789</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-806</v>
+        <v>1625</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1221,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1235,13 +1226,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>7029</v>
+        <v>6827</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>8087</v>
+        <v>7432</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1058</v>
+        <v>-605</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1252,7 +1243,7 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1266,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,28 +1267,28 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>7797</v>
+        <v>8314</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>8087</v>
+        <v>7432</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-290</v>
+        <v>882</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1311,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,28 +1312,28 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>7029</v>
+        <v>8414</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>7432</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-403</v>
+        <v>982</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1356,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1357,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>7029</v>
+        <v>5983</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7432</v>
+        <v>6197</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-403</v>
+        <v>-214</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,7 +1378,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1401,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1415,13 +1406,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>9447</v>
+        <v>7545</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>7432</v>
+        <v>6197</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2015</v>
+        <v>1348</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>46</v>
@@ -1432,7 +1423,7 @@
       <c r="I21" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1446,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1460,13 +1451,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8314</v>
+        <v>7923</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>6197</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2117</v>
+        <v>1726</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>46</v>
@@ -1477,7 +1468,7 @@
       <c r="I22" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1491,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1505,13 +1496,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6424</v>
+        <v>4648</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>6789</v>
+        <v>5353</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-365</v>
+        <v>-705</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1522,7 +1513,7 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1536,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1537,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
         <v>7545</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6789</v>
+        <v>5353</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>756</v>
+        <v>2192</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>46</v>
@@ -1567,7 +1558,7 @@
       <c r="I24" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1581,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,17 +1582,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>8414</v>
+        <v>7545</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>6789</v>
+        <v>5353</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1625</v>
+        <v>2192</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1612,7 +1603,7 @@
       <c r="I25" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1626,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,28 +1627,28 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6449</v>
+        <v>7646</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>6789</v>
+        <v>5353</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-340</v>
+        <v>2293</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1671,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,28 +1672,28 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8314</v>
+        <v>5445</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>6789</v>
+        <v>6197</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1525</v>
+        <v>-752</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1716,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1730,13 +1721,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8414</v>
+        <v>7923</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>6789</v>
+        <v>6197</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1625</v>
+        <v>1726</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1747,7 +1738,7 @@
       <c r="I28" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1761,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,28 +1762,28 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6292</v>
+        <v>8314</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>7432</v>
+        <v>6197</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1140</v>
+        <v>2117</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1806,7 +1797,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,28 +1807,28 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6827</v>
+        <v>7545</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>7432</v>
+        <v>5353</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-605</v>
+        <v>2192</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1851,7 +1842,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,28 +1852,28 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>8301</v>
+        <v>7646</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>7432</v>
+        <v>5353</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>869</v>
+        <v>2293</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1896,7 +1887,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1910,13 +1901,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>8314</v>
+        <v>7545</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>7432</v>
+        <v>5353</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>882</v>
+        <v>2192</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>46</v>
@@ -1927,7 +1918,7 @@
       <c r="I32" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1941,7 +1932,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1942,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>8414</v>
+        <v>7545</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>7432</v>
+        <v>5353</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>982</v>
+        <v>2192</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>46</v>
@@ -1972,7 +1963,7 @@
       <c r="I33" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1986,7 +1977,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,28 +1987,28 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5983</v>
+        <v>7545</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-214</v>
+        <v>2192</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2031,7 +2022,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,28 +2032,28 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>7923</v>
+        <v>6663</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1726</v>
+        <v>1310</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2076,7 +2067,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,28 +2077,28 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7923</v>
+        <v>6663</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1726</v>
+        <v>1310</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2121,7 +2112,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,28 +2122,28 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>7545</v>
+        <v>6663</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2192</v>
+        <v>1310</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2166,7 +2157,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2180,13 +2171,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7545</v>
+        <v>7646</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2192</v>
+        <v>2293</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2197,7 +2188,7 @@
       <c r="I38" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2211,7 +2202,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2225,13 +2216,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7646</v>
+        <v>7545</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>5353</v>
+        <v>5681</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2293</v>
+        <v>1864</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>46</v>
@@ -2242,7 +2233,7 @@
       <c r="I39" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2256,7 +2247,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,28 +2257,28 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5115</v>
+        <v>7545</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1082</v>
+        <v>2192</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2301,7 +2292,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,28 +2302,28 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>7923</v>
+        <v>6663</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1726</v>
+        <v>1310</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2346,7 +2337,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,17 +2347,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>8314</v>
+        <v>7646</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2117</v>
+        <v>2293</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>46</v>
@@ -2377,7 +2368,7 @@
       <c r="I42" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2391,7 +2382,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,28 +2392,28 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>8314</v>
+        <v>6663</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>6197</v>
+        <v>5353</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2117</v>
+        <v>1310</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2436,7 +2427,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2467,7 +2458,7 @@
       <c r="I44" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2481,7 +2472,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,28 +2482,28 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>7646</v>
+        <v>6663</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2293</v>
+        <v>1310</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2526,7 +2517,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,28 +2527,28 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>7545</v>
+        <v>6663</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2192</v>
+        <v>1310</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2571,7 +2562,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,28 +2572,28 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>7545</v>
+        <v>6663</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2192</v>
+        <v>1310</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J47" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2616,7 +2607,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,28 +2617,28 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>7545</v>
+        <v>6663</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2192</v>
+        <v>1310</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J48" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2661,7 +2652,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,7 +2662,7 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -2692,7 +2683,7 @@
       <c r="I49" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2706,7 +2697,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,28 +2707,28 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>7646</v>
+        <v>6663</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>5353</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2293</v>
+        <v>1310</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2751,7 +2742,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,17 +2752,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
         <v>6663</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>5681</v>
+        <v>5353</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>982</v>
+        <v>1310</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>40</v>
@@ -2782,7 +2773,7 @@
       <c r="I51" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2796,7 +2787,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,28 +2797,28 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>6663</v>
+        <v>8251</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>5681</v>
+        <v>6197</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>982</v>
+        <v>2054</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J52" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2841,7 +2832,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2855,13 +2846,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>7545</v>
+        <v>12118</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>5681</v>
+        <v>10871</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>1864</v>
+        <v>1247</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>46</v>
@@ -2872,7 +2863,7 @@
       <c r="I53" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2886,40 +2877,40 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>7545</v>
+        <v>16237</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>5353</v>
+        <v>18353</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2192</v>
+        <v>-2116</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J54" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -2931,38 +2922,38 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>6663</v>
+        <v>17535</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5353</v>
+        <v>18353</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>1310</v>
+        <v>-818</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2976,38 +2967,38 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>7646</v>
+        <v>17623</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>5353</v>
+        <v>18353</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2293</v>
+        <v>-730</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J56" s="5" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3021,7 +3012,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,17 +3022,17 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6663</v>
+        <v>12584</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>1310</v>
+        <v>-567</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>40</v>
@@ -3052,7 +3043,7 @@
       <c r="I57" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3066,7 +3057,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,28 +3067,28 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6663</v>
+        <v>14373</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>1310</v>
+        <v>1222</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3111,7 +3102,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,30 +3112,30 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>6663</v>
+        <v>10631</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>1310</v>
+        <v>-2520</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J59" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3156,7 +3147,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,28 +3157,28 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>6663</v>
+        <v>10946</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>1310</v>
+        <v>-2205</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J60" s="5" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3201,7 +3192,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,17 +3202,17 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>7545</v>
+        <v>12118</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2192</v>
+        <v>-1033</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>46</v>
@@ -3232,9 +3223,9 @@
       <c r="I61" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J61" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,7 +3237,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,28 +3247,28 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>6663</v>
+        <v>14373</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>5353</v>
+        <v>13151</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>1310</v>
+        <v>1222</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3291,7 +3282,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,28 +3292,28 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>6663</v>
+        <v>8729</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>5353</v>
+        <v>8087</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>1310</v>
+        <v>642</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J63" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3336,7 +3327,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,28 +3337,28 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>6663</v>
+        <v>8729</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>5353</v>
+        <v>8087</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>1310</v>
+        <v>642</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J64" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3381,7 +3372,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,28 +3382,28 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>6663</v>
+        <v>9195</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>5353</v>
+        <v>8087</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>1310</v>
+        <v>1108</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J65" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3426,7 +3417,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3440,13 +3431,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>8251</v>
+        <v>9195</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>6197</v>
+        <v>8087</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2054</v>
+        <v>1108</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>46</v>
@@ -3457,7 +3448,7 @@
       <c r="I66" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J66" s="5" t="inlineStr">
+      <c r="J66" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3471,7 +3462,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,17 +3472,17 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>12118</v>
+        <v>8251</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>10871</v>
+        <v>6789</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>1247</v>
+        <v>1462</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3502,7 +3493,7 @@
       <c r="I67" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3516,7 +3507,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,30 +3517,30 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>18756</v>
+        <v>8729</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>20948</v>
+        <v>6789</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-2192</v>
+        <v>1940</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,7 +3552,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>29-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,30 +3562,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>13844</v>
+        <v>8251</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>18353</v>
+        <v>7432</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-4509</v>
+        <v>819</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3597,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>29-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,28 +3607,28 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>14725</v>
+        <v>9195</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>18353</v>
+        <v>7432</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-3628</v>
+        <v>1763</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3651,7 +3642,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>29-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,28 +3652,28 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>17535</v>
+        <v>9296</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>18353</v>
+        <v>7432</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-818</v>
+        <v>1864</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3696,7 +3687,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,28 +3697,28 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>12584</v>
+        <v>8251</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>13151</v>
+        <v>8087</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-567</v>
+        <v>164</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J72" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3741,7 +3732,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,17 +3742,17 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>14373</v>
+        <v>8729</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>13151</v>
+        <v>8087</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1222</v>
+        <v>642</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>46</v>
@@ -3772,7 +3763,7 @@
       <c r="I73" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J73" s="5" t="inlineStr">
+      <c r="J73" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3786,7 +3777,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3787,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>10631</v>
+        <v>9195</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>13151</v>
+        <v>8087</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-2520</v>
+        <v>1108</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>46</v>
@@ -3817,9 +3808,9 @@
       <c r="I74" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J74" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,27 +3822,27 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>12118</v>
+        <v>8251</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-1033</v>
+        <v>1462</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>46</v>
@@ -3862,9 +3853,9 @@
       <c r="I75" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J75" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3876,38 +3867,38 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>12584</v>
+        <v>8251</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-567</v>
+        <v>1462</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J76" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3921,38 +3912,38 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>13340</v>
+        <v>8729</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>189</v>
+        <v>1940</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3966,7 +3957,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,17 +3967,17 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>14373</v>
+        <v>8251</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>13151</v>
+        <v>6789</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>1222</v>
+        <v>1462</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>46</v>
@@ -3997,7 +3988,7 @@
       <c r="I78" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J78" s="5" t="inlineStr">
+      <c r="J78" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4011,7 +4002,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,17 +4012,17 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>8729</v>
+        <v>8251</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>8087</v>
+        <v>6197</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>642</v>
+        <v>2054</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4042,7 +4033,7 @@
       <c r="I79" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J79" s="5" t="inlineStr">
+      <c r="J79" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4056,7 +4047,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4070,13 +4061,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>8729</v>
+        <v>8251</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>8087</v>
+        <v>6197</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>642</v>
+        <v>2054</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>46</v>
@@ -4087,7 +4078,7 @@
       <c r="I80" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J80" s="5" t="inlineStr">
+      <c r="J80" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4101,7 +4092,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,28 +4102,28 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>9195</v>
+        <v>5610</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>8087</v>
+        <v>5681</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>1108</v>
+        <v>-71</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J81" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4146,7 +4137,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,753 +4147,33 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>9195</v>
+        <v>5374</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>8087</v>
+        <v>5681</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>1108</v>
+        <v>-307</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J82" s="5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>02-APR-26</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>1462</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I83" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J83" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>02-APR-26</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-683</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>1462</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I84" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J84" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>03-APR-26</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>7432</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>819</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I85" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J85" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>03-APR-26</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-683</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>7432</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>1763</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I86" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J86" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>03-APR-26</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>9296</v>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>7432</v>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>1864</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I87" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J87" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>04-APR-26</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-681</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>8087</v>
-      </c>
-      <c r="F88" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I88" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J88" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>04-APR-26</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>8729</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>8087</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>642</v>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H89" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J89" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>04-APR-26</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-683</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>8087</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>1108</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J90" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>05-APR-26</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>1462</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H91" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I91" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J91" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>05-APR-26</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>1462</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H92" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I92" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J92" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>05-APR-26</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-681</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>8729</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>1940</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I93" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J93" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>06-APR-26</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>6789</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>1462</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J94" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>07-APR-26</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>6197</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>2054</v>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H95" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I95" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J95" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>11-APR-26</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>8251</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>6197</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>2054</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H96" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I96" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J96" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>20-APR-26</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-315</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>5374</v>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>5681</v>
-      </c>
-      <c r="F97" s="2" t="n">
-        <v>-307</v>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H97" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>25-APR-26</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-315</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>5445</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>5681</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>-236</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H98" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="5" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_DMM_threats.xlsx
+++ b/excel_routes/route_CAI_DMM_threats.xlsx
@@ -54,14 +54,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>15488</v>
+        <v>10121</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16003</v>
+        <v>11930</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-515</v>
+        <v>-1809</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>15638</v>
+        <v>11614</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16003</v>
+        <v>11930</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-365</v>
+        <v>-316</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>16668</v>
+        <v>12639</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>16003</v>
+        <v>11930</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>40</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-152</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12850</v>
+        <v>13398</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13101</v>
+        <v>11930</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-251</v>
+        <v>1468</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,30 +736,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12850</v>
+        <v>13398</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>16003</v>
+        <v>11930</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-3153</v>
+        <v>1468</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>13553</v>
+        <v>9160</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>16003</v>
+        <v>9969</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2450</v>
+        <v>-809</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>15488</v>
+        <v>10121</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>16003</v>
+        <v>10944</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-515</v>
+        <v>-823</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>16191</v>
+        <v>7705</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>16003</v>
+        <v>8135</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>188</v>
+        <v>-430</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9069</v>
+        <v>7831</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>9860</v>
+        <v>8135</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-791</v>
+        <v>-304</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>9069</v>
+        <v>9349</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>9860</v>
+        <v>8135</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-791</v>
+        <v>1214</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>9207</v>
+        <v>9349</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>9860</v>
+        <v>8135</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-653</v>
+        <v>1214</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>8089</v>
+        <v>9729</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>8893</v>
+        <v>8135</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-804</v>
+        <v>1594</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-152</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8504</v>
+        <v>6338</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8893</v>
+        <v>6819</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-389</v>
+        <v>-481</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6984</v>
+        <v>6920</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7411</v>
+        <v>7477</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-427</v>
+        <v>-557</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6996</v>
+        <v>7047</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7411</v>
+        <v>7477</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-415</v>
+        <v>-430</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>7901</v>
+        <v>5921</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>7411</v>
+        <v>6237</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>490</v>
+        <v>-316</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>8277</v>
+        <v>8590</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7411</v>
+        <v>6237</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>866</v>
+        <v>2353</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8378</v>
+        <v>8590</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>7411</v>
+        <v>6237</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>967</v>
+        <v>2353</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>46</v>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,26 +1366,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8780</v>
+        <v>5921</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1369</v>
+        <v>-898</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8277</v>
+        <v>6477</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6180</v>
+        <v>6819</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2097</v>
+        <v>-342</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8277</v>
+        <v>7831</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6180</v>
+        <v>6819</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2097</v>
+        <v>1012</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6381</v>
+        <v>8590</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1030</v>
+        <v>1771</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6745</v>
+        <v>8590</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-666</v>
+        <v>1771</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,26 +1591,26 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6996</v>
+        <v>7818</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>7411</v>
+        <v>5706</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-415</v>
+        <v>2112</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>8277</v>
+        <v>5377</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>7411</v>
+        <v>5389</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>866</v>
+        <v>-12</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8378</v>
+        <v>5137</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>7411</v>
+        <v>5389</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>967</v>
+        <v>-252</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8780</v>
+        <v>5343</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>7411</v>
+        <v>5389</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1369</v>
+        <v>-46</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>7901</v>
+        <v>5343</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>6180</v>
+        <v>5356</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1721</v>
+        <v>-13</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>8277</v>
+        <v>5343</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>6180</v>
+        <v>5389</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2097</v>
+        <v>-46</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7524</v>
+        <v>5343</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>5665</v>
+        <v>5356</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1859</v>
+        <v>-13</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7901</v>
+        <v>5343</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>5665</v>
+        <v>6237</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2236</v>
+        <v>-894</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7901</v>
+        <v>5343</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>5665</v>
+        <v>6198</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2236</v>
+        <v>-855</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7624</v>
+        <v>7871</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>5665</v>
+        <v>6237</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1959</v>
+        <v>1634</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>46</v>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5430</v>
+        <v>7871</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6180</v>
+        <v>6198</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-750</v>
+        <v>1673</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7901</v>
+        <v>8537</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6180</v>
+        <v>6237</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1721</v>
+        <v>2300</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8277</v>
+        <v>8537</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>6180</v>
+        <v>6198</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2097</v>
+        <v>2339</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,17 +2176,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7524</v>
+        <v>7770</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2186</v>
+        <v>2381</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7624</v>
+        <v>6692</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2286</v>
+        <v>1303</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>7624</v>
+        <v>6692</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2286</v>
+        <v>1303</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5102</v>
+        <v>6692</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-236</v>
+        <v>1303</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7524</v>
+        <v>6692</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2186</v>
+        <v>1303</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6644</v>
+        <v>6692</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>40</v>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6644</v>
+        <v>6692</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>40</v>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>6644</v>
+        <v>6692</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>40</v>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6644</v>
+        <v>6692</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>40</v>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,26 +2581,26 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>7624</v>
+        <v>6692</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>5338</v>
+        <v>5389</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2286</v>
+        <v>1303</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>5102</v>
+        <v>6692</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5665</v>
+        <v>5389</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-563</v>
+        <v>1303</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,26 +2671,26 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>5338</v>
+        <v>6692</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>5665</v>
+        <v>5389</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-327</v>
+        <v>1303</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>6644</v>
+        <v>8527</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>5665</v>
+        <v>8135</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>979</v>
+        <v>392</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,26 +2761,26 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>6644</v>
+        <v>9489</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>5665</v>
+        <v>8135</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>979</v>
+        <v>1354</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>7624</v>
+        <v>9489</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>5665</v>
+        <v>8135</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>1959</v>
+        <v>1354</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>46</v>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>6644</v>
+        <v>12993</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>5338</v>
+        <v>13208</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>1306</v>
+        <v>-215</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>40</v>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>6644</v>
+        <v>13398</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>5338</v>
+        <v>13208</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>1306</v>
+        <v>190</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>40</v>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>7524</v>
+        <v>14689</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5338</v>
+        <v>13208</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2186</v>
+        <v>1481</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>46</v>
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2990,22 +2990,22 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>6644</v>
+        <v>16434</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>1306</v>
+        <v>-1658</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3035,22 +3035,22 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6644</v>
+        <v>16434</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>1306</v>
+        <v>-1658</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,26 +3076,26 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6644</v>
+        <v>17523</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>1306</v>
+        <v>-569</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,26 +3121,26 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>7624</v>
+        <v>17662</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2286</v>
+        <v>-430</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,26 +3166,26 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>7524</v>
+        <v>17573</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>5338</v>
+        <v>20724</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2186</v>
+        <v>-3151</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,26 +3211,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nesma Airlines NE-150</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>6644</v>
+        <v>19281</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>5338</v>
+        <v>20724</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>1306</v>
+        <v>-1443</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,30 +3256,30 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>6644</v>
+        <v>15536</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>5338</v>
+        <v>23735</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>1306</v>
+        <v>-8199</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>6644</v>
+        <v>20989</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>5338</v>
+        <v>23735</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>1306</v>
+        <v>-2746</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,27 +3336,27 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>6644</v>
+        <v>16434</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>1306</v>
+        <v>-1658</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>40</v>
@@ -3367,9 +3367,9 @@
       <c r="I64" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,36 +3381,36 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>6644</v>
+        <v>17662</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>5338</v>
+        <v>18092</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>1306</v>
+        <v>-430</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,30 +3436,30 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>6644</v>
+        <v>6248</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>5338</v>
+        <v>14714</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>1306</v>
+        <v>-8466</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>8215</v>
+        <v>12411</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>6758</v>
+        <v>10944</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>1457</v>
+        <v>1467</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,26 +3526,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>12071</v>
+        <v>8843</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>11807</v>
+        <v>8135</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>264</v>
+        <v>708</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,30 +3571,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>18703</v>
+        <v>9489</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>20851</v>
+        <v>8135</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-2148</v>
+        <v>1354</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>14307</v>
+        <v>9489</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>13101</v>
+        <v>8135</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>1206</v>
+        <v>1354</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>46</v>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>10287</v>
+        <v>9489</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>13101</v>
+        <v>8135</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-2814</v>
+        <v>1354</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>10915</v>
+        <v>7193</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>13101</v>
+        <v>7477</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-2186</v>
+        <v>-284</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,30 +3751,30 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>12071</v>
+        <v>8843</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>13101</v>
+        <v>7477</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-1030</v>
+        <v>1366</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>14307</v>
+        <v>9008</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>13101</v>
+        <v>7477</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1206</v>
+        <v>1531</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>46</v>
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>14307</v>
+        <v>9008</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>13101</v>
+        <v>7477</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1206</v>
+        <v>1531</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>46</v>
@@ -3876,27 +3876,27 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>8692</v>
+        <v>8527</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>8051</v>
+        <v>7477</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>641</v>
+        <v>1050</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>46</v>
@@ -3921,36 +3921,36 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>9169</v>
+        <v>8843</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>8051</v>
+        <v>7477</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1118</v>
+        <v>1366</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
@@ -3966,27 +3966,27 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>9169</v>
+        <v>9008</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>8051</v>
+        <v>7477</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>1118</v>
+        <v>1531</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>46</v>
@@ -4011,27 +4011,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>9169</v>
+        <v>9489</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>8051</v>
+        <v>7477</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>1118</v>
+        <v>2012</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4056,36 +4056,36 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>7144</v>
+        <v>9590</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>7411</v>
+        <v>7477</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-267</v>
+        <v>2113</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,17 +4111,17 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>8215</v>
+        <v>9008</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>7411</v>
+        <v>8982</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>804</v>
+        <v>26</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>46</v>
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>8692</v>
+        <v>9008</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>7411</v>
+        <v>8982</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>1281</v>
+        <v>26</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>46</v>
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4201,26 +4201,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>8215</v>
+        <v>7452</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>804</v>
+        <v>633</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4250,13 +4250,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>9169</v>
+        <v>8527</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>1758</v>
+        <v>1708</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>46</v>
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>9270</v>
+        <v>8527</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>7411</v>
+        <v>6819</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>1859</v>
+        <v>1708</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>46</v>
@@ -4326,27 +4326,27 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>8215</v>
+        <v>9008</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>8051</v>
+        <v>6819</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>164</v>
+        <v>2189</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>46</v>
@@ -4371,27 +4371,27 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>8692</v>
+        <v>9008</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>8051</v>
+        <v>6819</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>641</v>
+        <v>2189</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>46</v>
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,26 +4426,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>9169</v>
+        <v>6248</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>8051</v>
+        <v>6819</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>1118</v>
+        <v>-571</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4461,36 +4461,36 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>8215</v>
+        <v>6248</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>6758</v>
+        <v>6777</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>1457</v>
+        <v>-529</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4506,36 +4506,36 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>8215</v>
+        <v>7072</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>6758</v>
+        <v>6819</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>1457</v>
+        <v>253</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4551,36 +4551,36 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>8692</v>
+        <v>7072</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>6758</v>
+        <v>6777</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>1934</v>
+        <v>295</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>8215</v>
+        <v>8474</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>6758</v>
+        <v>6819</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>1457</v>
+        <v>1655</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>46</v>
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4655,13 +4655,13 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>8215</v>
+        <v>8474</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>6180</v>
+        <v>6777</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>2035</v>
+        <v>1697</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>46</v>
@@ -4686,7 +4686,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>11-APR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4696,26 +4696,26 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>8215</v>
+        <v>7072</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>6758</v>
+        <v>6237</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>1457</v>
+        <v>835</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4741,26 +4741,26 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>5594</v>
+        <v>8527</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>6180</v>
+        <v>6237</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-586</v>
+        <v>2290</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>20-APR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,26 +4786,26 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>5360</v>
+        <v>7072</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>5665</v>
+        <v>6237</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-305</v>
+        <v>835</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>25-APR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4831,26 +4831,26 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>5430</v>
+        <v>7072</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>6180</v>
+        <v>5706</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-750</v>
+        <v>1366</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J97" s="3" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>01-MAY-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4876,26 +4876,26 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>5430</v>
+        <v>7452</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>5665</v>
+        <v>6237</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-235</v>
+        <v>1215</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>02-MAY-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4921,26 +4921,26 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>5430</v>
+        <v>8527</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>5665</v>
+        <v>6819</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-235</v>
+        <v>1708</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
@@ -4956,40 +4956,40 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>5012</v>
+        <v>7072</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>9860</v>
+        <v>6237</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-4848</v>
+        <v>835</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -5015,26 +5015,26 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>7775</v>
+        <v>4668</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>9860</v>
+        <v>6237</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-2085</v>
+        <v>-1569</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J101" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
@@ -5046,36 +5046,36 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>7775</v>
+        <v>8527</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>9860</v>
+        <v>6237</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-2085</v>
+        <v>2290</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5091,36 +5091,36 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>15-APR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>7863</v>
+        <v>7072</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>9860</v>
+        <v>5706</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-1997</v>
+        <v>1366</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5136,36 +5136,36 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>16-APR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>7863</v>
+        <v>7072</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>9860</v>
+        <v>6237</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-1997</v>
+        <v>835</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5181,40 +5181,40 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>8215</v>
+        <v>7072</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>9860</v>
+        <v>5706</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-1645</v>
+        <v>1366</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J105" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J105" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,27 +5226,27 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>7775</v>
+        <v>7831</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-2085</v>
+        <v>-2138</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>30</v>
@@ -5271,27 +5271,27 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>23</v>
@@ -5316,27 +5316,27 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>23</v>
@@ -5361,40 +5361,40 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>7863</v>
+        <v>8527</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-1997</v>
+        <v>-1442</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J109" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
@@ -5416,28 +5416,28 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>8215</v>
+        <v>5048</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-1645</v>
+        <v>-4921</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J110" s="4" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J110" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,30 +5461,30 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>7775</v>
+        <v>5048</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-2085</v>
+        <v>-4921</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J111" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,30 +5506,30 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>7863</v>
+        <v>6248</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-1997</v>
+        <v>-3721</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J112" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,26 +5551,26 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>23</v>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,30 +5641,30 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>8215</v>
+        <v>8160</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-1645</v>
+        <v>-1809</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J115" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,30 +5686,30 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>5012</v>
+        <v>8160</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-4848</v>
+        <v>-1809</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J116" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5731,28 +5731,28 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>7398</v>
+        <v>8527</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-2462</v>
+        <v>-1442</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J117" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J117" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,30 +5776,30 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>7775</v>
+        <v>5048</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-2085</v>
+        <v>-4921</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J118" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,30 +5821,30 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>7863</v>
+        <v>5048</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>-1997</v>
+        <v>-4921</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J119" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J119" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,26 +5866,26 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J120" s="3" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,17 +5911,17 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>23</v>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,30 +5956,30 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>8215</v>
+        <v>8160</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-1645</v>
+        <v>-1809</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J122" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K122" s="2" t="inlineStr">
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,30 +6001,30 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>7398</v>
+        <v>8160</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-2462</v>
+        <v>-1809</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J123" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K123" s="2" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>7775</v>
+        <v>8527</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-2085</v>
+        <v>-1442</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J124" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,26 +6091,26 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>23</v>
@@ -6171,7 +6171,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6181,30 +6181,30 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>8215</v>
+        <v>8160</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-1645</v>
+        <v>-1809</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J127" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,40 +6216,40 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>5012</v>
+        <v>8160</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-4848</v>
+        <v>-1809</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J128" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,38 +6261,38 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>5012</v>
+        <v>8527</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-4848</v>
+        <v>-1442</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J129" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J129" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6306,38 +6306,38 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>5430</v>
+        <v>5048</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-4430</v>
+        <v>-4921</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="4" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J130" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6351,40 +6351,40 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>7775</v>
+        <v>7452</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-2085</v>
+        <v>-2517</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J131" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,36 +6396,36 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3" t="inlineStr">
         <is>
@@ -6441,40 +6441,40 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>8215</v>
+        <v>8160</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-1645</v>
+        <v>-1809</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J133" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J133" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,40 +6486,40 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>9169</v>
+        <v>8160</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-691</v>
+        <v>-1809</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J134" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J134" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K134" s="2" t="inlineStr">
@@ -6531,27 +6531,27 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>9169</v>
+        <v>8527</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-691</v>
+        <v>-1442</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>46</v>
@@ -6562,7 +6562,7 @@
       <c r="I135" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J135" s="4" t="inlineStr">
+      <c r="J135" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6576,12 +6576,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -6590,13 +6590,13 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5012</v>
+        <v>5048</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-4848</v>
+        <v>-4921</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>15</v>
@@ -6607,7 +6607,7 @@
       <c r="I136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J136" s="4" t="inlineStr">
+      <c r="J136" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6621,27 +6621,27 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-317</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>5430</v>
+        <v>6319</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-4430</v>
+        <v>-3650</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>30</v>
@@ -6652,7 +6652,7 @@
       <c r="I137" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J137" s="4" t="inlineStr">
+      <c r="J137" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6666,38 +6666,38 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>5430</v>
+        <v>7452</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-4430</v>
+        <v>-2517</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" s="4" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J138" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6711,40 +6711,40 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>7775</v>
+        <v>7831</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-2085</v>
+        <v>-2138</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J139" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J139" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
@@ -6756,36 +6756,36 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>7775</v>
+        <v>8160</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-2085</v>
+        <v>-1809</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
@@ -6801,40 +6801,40 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>7863</v>
+        <v>8527</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-1997</v>
+        <v>-1442</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J141" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J141" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,27 +6846,27 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>8215</v>
+        <v>9489</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-1645</v>
+        <v>-480</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>46</v>
@@ -6877,7 +6877,7 @@
       <c r="I142" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J142" s="4" t="inlineStr">
+      <c r="J142" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6891,27 +6891,27 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>9169</v>
+        <v>9489</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>-691</v>
+        <v>-480</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>46</v>
@@ -6922,7 +6922,7 @@
       <c r="I143" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J143" s="4" t="inlineStr">
+      <c r="J143" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6946,28 +6946,28 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>9169</v>
+        <v>5048</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-691</v>
+        <v>-4921</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J144" s="4" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J144" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -6981,40 +6981,40 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Air Arabia Egypt E5-317</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>5263</v>
+        <v>6319</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-4597</v>
+        <v>-3650</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J145" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J145" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K145" s="2" t="inlineStr">
@@ -7026,40 +7026,40 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>6896</v>
+        <v>6319</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-2964</v>
+        <v>-3650</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J146" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J146" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K146" s="2" t="inlineStr">
@@ -7071,40 +7071,40 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>7775</v>
+        <v>7831</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-2085</v>
+        <v>-2138</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J147" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K147" s="2" t="inlineStr">
@@ -7116,36 +7116,36 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
@@ -7161,27 +7161,27 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>23</v>
@@ -7206,40 +7206,40 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>7863</v>
+        <v>8527</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-1997</v>
+        <v>-1442</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J150" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J150" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K150" s="2" t="inlineStr">
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7261,30 +7261,30 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5263</v>
+        <v>9489</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-4597</v>
+        <v>-480</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J151" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J151" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K151" s="2" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,28 +7306,28 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>5360</v>
+        <v>9489</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-4500</v>
+        <v>-480</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J152" s="5" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -7341,36 +7341,36 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>6896</v>
+        <v>7831</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-2964</v>
+        <v>-2138</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J153" s="3" t="inlineStr">
         <is>
@@ -7386,36 +7386,36 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>7775</v>
+        <v>8160</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-2085</v>
+        <v>-1809</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J154" s="3" t="inlineStr">
         <is>
@@ -7431,27 +7431,27 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>23</v>
@@ -7476,27 +7476,27 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>23</v>
@@ -7531,26 +7531,26 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>7863</v>
+        <v>5301</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-1997</v>
+        <v>-4668</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J157" s="3" t="inlineStr">
         <is>
@@ -7576,30 +7576,30 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>7863</v>
+        <v>6248</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-1997</v>
+        <v>-3721</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J158" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J158" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
@@ -7611,7 +7611,7 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -7621,26 +7621,26 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>5263</v>
+        <v>6945</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-4597</v>
+        <v>-3024</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J159" s="3" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -7666,26 +7666,26 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>6896</v>
+        <v>7831</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-2964</v>
+        <v>-2138</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J160" s="3" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -7711,26 +7711,26 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>7775</v>
+        <v>8160</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-2085</v>
+        <v>-1809</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J161" s="3" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -7756,17 +7756,17 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>23</v>
@@ -7791,7 +7791,7 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -7801,17 +7801,17 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>23</v>
@@ -7836,7 +7836,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -7846,17 +7846,17 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>23</v>
@@ -7891,26 +7891,26 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>7863</v>
+        <v>5807</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-1997</v>
+        <v>-4162</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J165" s="3" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -7936,26 +7936,26 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>5263</v>
+        <v>6945</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-4597</v>
+        <v>-3024</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J166" s="3" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -7981,17 +7981,17 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>7775</v>
+        <v>7831</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-2085</v>
+        <v>-2138</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>30</v>
@@ -8016,7 +8016,7 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -8030,13 +8030,13 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>23</v>
@@ -8061,7 +8061,7 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -8075,13 +8075,13 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>23</v>
@@ -8106,7 +8106,7 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -8120,13 +8120,13 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>23</v>
@@ -8151,7 +8151,7 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -8165,13 +8165,13 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>23</v>
@@ -8206,26 +8206,26 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>9282</v>
+        <v>7831</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-578</v>
+        <v>-2138</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J172" s="3" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -8251,26 +8251,26 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>5263</v>
+        <v>8160</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>-4597</v>
+        <v>-1809</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J173" s="3" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>7775</v>
+        <v>8160</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-2085</v>
+        <v>-1809</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J174" s="3" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -8341,17 +8341,17 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>23</v>
@@ -8376,7 +8376,7 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -8386,17 +8386,17 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-1997</v>
+        <v>-1809</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>23</v>
@@ -8431,26 +8431,26 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>7863</v>
+        <v>7831</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-1997</v>
+        <v>-2138</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J177" s="3" t="inlineStr">
         <is>
@@ -8476,26 +8476,26 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>9282</v>
+        <v>8160</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>9860</v>
+        <v>9969</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-578</v>
+        <v>-1809</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J178" s="3" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -8525,13 +8525,13 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>16003</v>
+        <v>9969</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-8140</v>
+        <v>-1809</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>23</v>
@@ -8542,9 +8542,9 @@
       <c r="I179" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J179" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J179" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K179" s="2" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -8566,17 +8566,17 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>7863</v>
+        <v>8160</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>16003</v>
+        <v>9969</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-8140</v>
+        <v>-1809</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>23</v>
@@ -8587,9 +8587,9 @@
       <c r="I180" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J180" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J180" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K180" s="2" t="inlineStr">
@@ -8611,28 +8611,28 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>7863</v>
+        <v>5301</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>-8140</v>
+        <v>-10880</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J181" s="5" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J181" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -8656,28 +8656,28 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>7863</v>
+        <v>6945</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-8140</v>
+        <v>-9236</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J182" s="5" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J182" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -8701,30 +8701,30 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>12737</v>
+        <v>8160</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-3266</v>
+        <v>-8021</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J183" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K183" s="2" t="inlineStr">
@@ -8746,17 +8746,17 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-6447</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>14621</v>
+        <v>8160</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>-1382</v>
+        <v>-8021</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>23</v>
@@ -8767,9 +8767,9 @@
       <c r="I184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J184" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J184" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K184" s="2" t="inlineStr">
@@ -8781,38 +8781,38 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>5430</v>
+        <v>8160</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>-10573</v>
+        <v>-8021</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" s="5" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J185" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -8826,38 +8826,38 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>7273</v>
+        <v>8160</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>-8730</v>
+        <v>-8021</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J186" s="5" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J186" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -8871,40 +8871,40 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>7524</v>
+        <v>12854</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>-8479</v>
+        <v>-3327</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J187" s="5" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K187" s="2" t="inlineStr">
@@ -8916,40 +8916,40 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>Saudia SV-6447</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>12737</v>
+        <v>14726</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>-3266</v>
+        <v>-1455</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I188" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K188" s="2" t="inlineStr">
@@ -8971,30 +8971,30 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>16970</v>
+        <v>6319</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>967</v>
+        <v>-9862</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I189" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J189" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J189" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K189" s="2" t="inlineStr">
@@ -9016,30 +9016,30 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>16970</v>
+        <v>7325</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>967</v>
+        <v>-8856</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I190" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J190" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J190" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K190" s="2" t="inlineStr">
@@ -9061,30 +9061,30 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>16970</v>
+        <v>7578</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>967</v>
+        <v>-8603</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I191" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J191" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J191" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K191" s="2" t="inlineStr">
@@ -9106,30 +9106,30 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>16970</v>
+        <v>12854</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>967</v>
+        <v>-3327</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I192" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J192" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J192" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K192" s="2" t="inlineStr">
@@ -9141,40 +9141,40 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>30-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>8780</v>
+        <v>17383</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>-7223</v>
+        <v>1202</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I193" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J193" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J193" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K193" s="2" t="inlineStr">
@@ -9186,40 +9186,40 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>30-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>9408</v>
+        <v>17383</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>-6595</v>
+        <v>1202</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I194" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J194" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J194" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K194" s="2" t="inlineStr">
@@ -9231,40 +9231,40 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>30-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>12737</v>
+        <v>17383</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>-3266</v>
+        <v>1202</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I195" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J195" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K195" s="2" t="inlineStr">
@@ -9276,36 +9276,36 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>30-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-317</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>15429</v>
+        <v>17383</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>-574</v>
+        <v>1202</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H196" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I196" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J196" s="3" t="inlineStr">
         <is>
@@ -9331,30 +9331,30 @@
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>15429</v>
+        <v>8843</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>-574</v>
+        <v>-7338</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H197" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I197" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J197" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K197" s="2" t="inlineStr">
@@ -9376,30 +9376,30 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>16970</v>
+        <v>11880</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>967</v>
+        <v>-4301</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H198" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I198" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J198" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J198" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K198" s="2" t="inlineStr">
@@ -9421,30 +9421,30 @@
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>16970</v>
+        <v>12854</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>967</v>
+        <v>-3327</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H199" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I199" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J199" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J199" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K199" s="2" t="inlineStr">
@@ -9466,26 +9466,26 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Air Arabia Egypt E5-317</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>16970</v>
+        <v>15536</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>967</v>
+        <v>-645</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H200" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I200" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J200" s="3" t="inlineStr">
         <is>
@@ -9511,26 +9511,26 @@
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>16970</v>
+        <v>15536</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>967</v>
+        <v>-645</v>
       </c>
       <c r="G201" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H201" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I201" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J201" s="3" t="inlineStr">
         <is>
@@ -9546,40 +9546,40 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>31-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>12737</v>
+        <v>17383</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>-3266</v>
+        <v>1202</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H202" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I202" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J202" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K202" s="2" t="inlineStr">
@@ -9591,27 +9591,27 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>31-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>16970</v>
+        <v>17383</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>967</v>
+        <v>1202</v>
       </c>
       <c r="G203" s="2" t="n">
         <v>46</v>
@@ -9636,27 +9636,27 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>31-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>16970</v>
+        <v>17383</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>967</v>
+        <v>1202</v>
       </c>
       <c r="G204" s="2" t="n">
         <v>46</v>
@@ -9681,27 +9681,27 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>31-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>16970</v>
+        <v>17383</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>16003</v>
+        <v>16181</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>967</v>
+        <v>1202</v>
       </c>
       <c r="G205" s="2" t="n">
         <v>46</v>
@@ -9718,51 +9718,6 @@
         </is>
       </c>
       <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>16970</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>16003</v>
-      </c>
-      <c r="F206" s="2" t="n">
-        <v>967</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H206" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I206" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J206" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_DMM_threats.xlsx
+++ b/excel_routes/route_CAI_DMM_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>10121</v>
+        <v>12769</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11930</v>
+        <v>14475</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1809</v>
+        <v>-1706</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>11614</v>
+        <v>13509</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11930</v>
+        <v>14475</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-316</v>
+        <v>-966</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12639</v>
+        <v>11427</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>11930</v>
+        <v>13170</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>709</v>
+        <v>-1743</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>13398</v>
+        <v>12769</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11930</v>
+        <v>13170</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1468</v>
+        <v>-401</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>13398</v>
+        <v>13283</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>11930</v>
+        <v>13170</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1468</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>40</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>9160</v>
+        <v>7664</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9969</v>
+        <v>8931</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-809</v>
+        <v>-1267</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10121</v>
+        <v>8542</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>10944</v>
+        <v>8931</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-823</v>
+        <v>-389</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7705</v>
+        <v>9671</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>8135</v>
+        <v>8931</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-430</v>
+        <v>740</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7831</v>
+        <v>9771</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>8135</v>
+        <v>8931</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-304</v>
+        <v>840</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nesma Airlines NE-152</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>9349</v>
+        <v>7664</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>8135</v>
+        <v>8090</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1214</v>
+        <v>-426</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>9349</v>
+        <v>7789</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8135</v>
+        <v>8090</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1214</v>
+        <v>-301</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>9729</v>
+        <v>9771</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>8135</v>
+        <v>8090</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1594</v>
+        <v>1681</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>46</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-152</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6338</v>
+        <v>9671</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6819</v>
+        <v>8090</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-481</v>
+        <v>1581</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6920</v>
+        <v>5882</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-557</v>
+        <v>-314</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>7047</v>
+        <v>5958</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-430</v>
+        <v>-238</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>5921</v>
+        <v>8140</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6237</v>
+        <v>6196</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-316</v>
+        <v>1944</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>8590</v>
+        <v>5958</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6237</v>
+        <v>6196</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2353</v>
+        <v>-238</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8590</v>
+        <v>8140</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6237</v>
+        <v>6196</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2353</v>
+        <v>1944</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>46</v>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5921</v>
+        <v>5658</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-898</v>
+        <v>-538</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6477</v>
+        <v>5882</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-342</v>
+        <v>-314</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>7831</v>
+        <v>5958</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1012</v>
+        <v>-238</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8590</v>
+        <v>8140</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1771</v>
+        <v>1944</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>46</v>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8590</v>
+        <v>5095</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6819</v>
+        <v>5669</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1771</v>
+        <v>-574</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,26 +1591,26 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>7818</v>
+        <v>5356</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>5706</v>
+        <v>5669</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2112</v>
+        <v>-313</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5377</v>
+        <v>6635</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>5389</v>
+        <v>5343</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-12</v>
+        <v>1292</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5137</v>
+        <v>6635</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5389</v>
+        <v>5343</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-252</v>
+        <v>1292</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>5389</v>
-      </c>
       <c r="F28" s="2" t="n">
-        <v>-46</v>
+        <v>-248</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>5356</v>
-      </c>
       <c r="F29" s="2" t="n">
-        <v>-13</v>
+        <v>-248</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>6635</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>5389</v>
-      </c>
       <c r="F30" s="2" t="n">
-        <v>-46</v>
+        <v>1292</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
+        <v>6635</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>5356</v>
-      </c>
       <c r="F31" s="2" t="n">
-        <v>-13</v>
+        <v>1292</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>6384</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>6237</v>
-      </c>
       <c r="F32" s="2" t="n">
-        <v>-894</v>
+        <v>1041</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>5343</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>6198</v>
-      </c>
       <c r="F33" s="2" t="n">
-        <v>-855</v>
+        <v>-248</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7871</v>
+        <v>6384</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>6237</v>
+        <v>5343</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1634</v>
+        <v>1041</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-855</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>7871</v>
+        <v>6384</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6198</v>
+        <v>5343</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1673</v>
+        <v>1041</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>8537</v>
+        <v>8943</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6237</v>
+        <v>8090</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2300</v>
+        <v>853</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2135,13 +2135,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8537</v>
+        <v>9420</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>6198</v>
+        <v>8090</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2339</v>
+        <v>1330</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>46</v>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7770</v>
+        <v>9420</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>5389</v>
+        <v>8090</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2381</v>
+        <v>1330</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nesma Airlines NE-154</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6692</v>
+        <v>17448</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>5389</v>
+        <v>18012</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1303</v>
+        <v>-564</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6692</v>
+        <v>17560</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>5389</v>
+        <v>18012</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1303</v>
+        <v>-452</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,30 +2311,30 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-311</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>6692</v>
+        <v>15410</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>5389</v>
+        <v>20634</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1303</v>
+        <v>-5224</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>6692</v>
+        <v>18927</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>5389</v>
+        <v>23632</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1303</v>
+        <v>-4705</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6692</v>
+        <v>23042</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>5389</v>
+        <v>23632</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1303</v>
+        <v>-590</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>6692</v>
+        <v>11823</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>5389</v>
+        <v>14638</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1303</v>
+        <v>-2815</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,30 +2491,30 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>6692</v>
+        <v>4001</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>5389</v>
+        <v>8931</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>1303</v>
+        <v>-4930</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6692</v>
+        <v>9420</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>5389</v>
+        <v>8931</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1303</v>
+        <v>489</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,26 +2581,26 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>6692</v>
+        <v>9420</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>5389</v>
+        <v>8931</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>1303</v>
+        <v>489</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>6692</v>
+        <v>9420</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5389</v>
+        <v>8931</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>1303</v>
+        <v>489</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,26 +2671,26 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>6692</v>
+        <v>6234</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>5389</v>
+        <v>7438</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1303</v>
+        <v>-1204</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>8527</v>
+        <v>7135</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>8135</v>
+        <v>7438</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>392</v>
+        <v>-303</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>9489</v>
+        <v>8466</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>8135</v>
+        <v>7438</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>1354</v>
+        <v>1028</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>46</v>
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,26 +2806,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>9489</v>
+        <v>8767</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>8135</v>
+        <v>7438</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>1354</v>
+        <v>1329</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,26 +2851,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>12993</v>
+        <v>8943</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>13208</v>
+        <v>7438</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-215</v>
+        <v>1505</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>13398</v>
+        <v>8943</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>13208</v>
+        <v>7438</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>190</v>
+        <v>1505</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,36 +2931,36 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>14689</v>
+        <v>7990</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>13208</v>
+        <v>8090</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>1481</v>
+        <v>-100</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2976,36 +2976,36 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>16434</v>
+        <v>8466</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>18092</v>
+        <v>8090</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-1658</v>
+        <v>376</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3021,36 +3021,36 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-855</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>16434</v>
+        <v>8943</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>18092</v>
+        <v>8090</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-1658</v>
+        <v>853</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3066,36 +3066,36 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-154</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>17523</v>
+        <v>9269</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>18092</v>
+        <v>8090</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-569</v>
+        <v>1179</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,36 +3111,36 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>17662</v>
+        <v>9420</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>18092</v>
+        <v>8090</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-430</v>
+        <v>1330</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,36 +3156,36 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>17573</v>
+        <v>9520</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>20724</v>
+        <v>8090</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-3151</v>
+        <v>1430</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,30 +3211,30 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-150</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>19281</v>
+        <v>4001</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>20724</v>
+        <v>8931</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-1443</v>
+        <v>-4930</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>15536</v>
+        <v>6267</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>23735</v>
+        <v>8931</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-8199</v>
+        <v>-2664</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>30</v>
@@ -3277,9 +3277,9 @@
       <c r="I62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>20989</v>
+        <v>6886</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>23735</v>
+        <v>8931</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-2746</v>
+        <v>-2045</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,40 +3336,40 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>29-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>16434</v>
+        <v>8943</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>18092</v>
+        <v>8931</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-1658</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J64" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,36 +3381,36 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>29-MAR-26</t>
+          <t>04-APR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>17662</v>
+        <v>8943</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>18092</v>
+        <v>8931</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-430</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3426,40 +3426,40 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>6248</v>
+        <v>8466</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>14714</v>
+        <v>6786</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-8466</v>
+        <v>1680</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,27 +3471,27 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>12411</v>
+        <v>8943</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>10944</v>
+        <v>6786</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>1467</v>
+        <v>2157</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>46</v>
@@ -3516,36 +3516,36 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>8843</v>
+        <v>8943</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>8135</v>
+        <v>6786</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>708</v>
+        <v>2157</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3561,27 +3561,27 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>9489</v>
+        <v>8943</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>8135</v>
+        <v>6786</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1354</v>
+        <v>2157</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>46</v>
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,26 +3616,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>9489</v>
+        <v>6197</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>8135</v>
+        <v>6786</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>1354</v>
+        <v>-589</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>9489</v>
+        <v>6234</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>8135</v>
+        <v>6786</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>1354</v>
+        <v>-552</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>7193</v>
+        <v>7388</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>7477</v>
+        <v>6786</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-284</v>
+        <v>602</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,26 +3751,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>8843</v>
+        <v>8466</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>7477</v>
+        <v>6786</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1366</v>
+        <v>1680</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>9008</v>
+        <v>8466</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1531</v>
+        <v>2270</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>46</v>
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>9008</v>
+        <v>4628</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1531</v>
+        <v>-1568</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3876,27 +3876,27 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>8527</v>
+        <v>8466</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1050</v>
+        <v>2270</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>46</v>
@@ -3921,36 +3921,36 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>8843</v>
+        <v>8466</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1366</v>
+        <v>2270</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
@@ -3966,36 +3966,36 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>9008</v>
+        <v>7011</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>1531</v>
+        <v>815</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -4011,27 +4011,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>09-APR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>9489</v>
+        <v>8466</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>2012</v>
+        <v>2270</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>46</v>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,26 +4066,26 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>9590</v>
+        <v>7388</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>7477</v>
+        <v>6196</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>2113</v>
+        <v>1192</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,26 +4111,26 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>9008</v>
+        <v>6234</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>8982</v>
+        <v>6786</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>26</v>
+        <v>-552</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>04-APR-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,26 +4156,26 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>9008</v>
+        <v>6268</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>8982</v>
+        <v>6786</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>26</v>
+        <v>-518</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3" t="inlineStr">
         <is>
@@ -4191,12 +4191,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>7452</v>
+        <v>7388</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>6819</v>
+        <v>6786</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>40</v>
@@ -4236,27 +4236,27 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>11-APR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>8527</v>
+        <v>8466</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>6819</v>
+        <v>6786</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>1708</v>
+        <v>1680</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>46</v>
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>12-APR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,26 +4291,26 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>8527</v>
+        <v>7011</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>1708</v>
+        <v>815</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J85" s="3" t="inlineStr">
         <is>
@@ -4326,36 +4326,36 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>9008</v>
+        <v>7011</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>2189</v>
+        <v>815</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4371,36 +4371,36 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>9008</v>
+        <v>4628</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>2189</v>
+        <v>-1568</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,26 +4426,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>6248</v>
+        <v>8466</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-571</v>
+        <v>2270</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>25-APR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,26 +4471,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>6248</v>
+        <v>7011</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>6777</v>
+        <v>6196</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-529</v>
+        <v>815</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>25-APR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,26 +4516,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>7072</v>
+        <v>8466</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>6819</v>
+        <v>6196</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>253</v>
+        <v>2270</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4551,40 +4551,40 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>7072</v>
+        <v>7237</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>6777</v>
+        <v>9909</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>295</v>
+        <v>-2672</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J91" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J91" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -4596,40 +4596,40 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>8474</v>
+        <v>7764</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>6819</v>
+        <v>9909</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>1655</v>
+        <v>-2145</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J92" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J92" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,36 +4641,36 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>8474</v>
+        <v>7789</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>6777</v>
+        <v>9909</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>1697</v>
+        <v>-2120</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4686,36 +4686,36 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>7072</v>
+        <v>8115</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>835</v>
+        <v>-1794</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,36 +4731,36 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>8527</v>
+        <v>8115</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>2290</v>
+        <v>-1794</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4776,40 +4776,40 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>7072</v>
+        <v>8466</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>835</v>
+        <v>-1443</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J96" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J96" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4835,26 +4835,26 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>7072</v>
+        <v>5004</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>5706</v>
+        <v>9909</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>1366</v>
+        <v>-4905</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J97" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4866,40 +4866,40 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>7452</v>
+        <v>6197</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>1215</v>
+        <v>-3712</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J98" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>11-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4921,30 +4921,30 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>8527</v>
+        <v>7237</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>6819</v>
+        <v>9909</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>1708</v>
+        <v>-2672</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J99" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J99" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -4956,7 +4956,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>13-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -4966,26 +4966,26 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>7072</v>
+        <v>7789</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>835</v>
+        <v>-2120</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -5011,26 +5011,26 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>4668</v>
+        <v>8115</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-1569</v>
+        <v>-1794</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5056,26 +5056,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>8527</v>
+        <v>8115</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>2290</v>
+        <v>-1794</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5101,26 +5101,26 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>7072</v>
+        <v>8115</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>5706</v>
+        <v>9909</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>1366</v>
+        <v>-1794</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>16-APR-26</t>
+          <t>11-MAY-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5146,26 +5146,26 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>7072</v>
+        <v>8115</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>6237</v>
+        <v>9909</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>835</v>
+        <v>-1794</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>30-APR-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -5195,26 +5195,26 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>7072</v>
+        <v>5004</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>5706</v>
+        <v>9909</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>1366</v>
+        <v>-4905</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J105" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J105" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,27 +5226,27 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>7831</v>
+        <v>7237</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-2138</v>
+        <v>-2672</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>30</v>
@@ -5257,9 +5257,9 @@
       <c r="I106" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J106" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J106" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K106" s="2" t="inlineStr">
@@ -5271,36 +5271,36 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>8160</v>
+        <v>7789</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-1809</v>
+        <v>-2120</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3" t="inlineStr">
         <is>
@@ -5316,27 +5316,27 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>23</v>
@@ -5361,40 +5361,40 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>8527</v>
+        <v>8115</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-1442</v>
+        <v>-1794</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J109" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J109" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
@@ -5406,7 +5406,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -5416,30 +5416,30 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>5048</v>
+        <v>8115</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-4921</v>
+        <v>-1794</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J110" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J110" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,26 +5461,26 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>5048</v>
+        <v>8466</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-4921</v>
+        <v>-1443</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J111" s="5" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,26 +5506,26 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>6248</v>
+        <v>5004</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-3721</v>
+        <v>-4905</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J112" s="5" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,30 +5551,30 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>7831</v>
+        <v>5004</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-2138</v>
+        <v>-4905</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J113" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K113" s="2" t="inlineStr">
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,26 +5596,26 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>8160</v>
+        <v>7789</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-1809</v>
+        <v>-2120</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>23</v>
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>23</v>
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>11-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5731,30 +5731,30 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>8527</v>
+        <v>8115</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-1442</v>
+        <v>-1794</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J117" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K117" s="2" t="inlineStr">
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,30 +5776,30 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>5048</v>
+        <v>8115</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-4921</v>
+        <v>-1794</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J118" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,26 +5821,26 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>5048</v>
+        <v>5004</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>-4921</v>
+        <v>-4905</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J119" s="5" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,30 +5866,30 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>7831</v>
+        <v>5004</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-2138</v>
+        <v>-4905</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J120" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,26 +5911,26 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>8160</v>
+        <v>7789</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-1809</v>
+        <v>-2120</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,17 +5956,17 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>23</v>
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6005,13 +6005,13 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>23</v>
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>14-MAY-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6050,13 +6050,13 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>8527</v>
+        <v>8466</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-1442</v>
+        <v>-1443</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>46</v>
@@ -6081,12 +6081,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -6095,13 +6095,13 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>7831</v>
+        <v>7789</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-2138</v>
+        <v>-2120</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>30</v>
@@ -6126,27 +6126,27 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>23</v>
@@ -6171,40 +6171,40 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>8160</v>
+        <v>8466</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-1809</v>
+        <v>-1443</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J127" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J127" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,40 +6216,40 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>8160</v>
+        <v>9420</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-1809</v>
+        <v>-489</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J128" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J128" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,27 +6261,27 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>8527</v>
+        <v>9420</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-1442</v>
+        <v>-489</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>46</v>
@@ -6306,7 +6306,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6316,26 +6316,26 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>5048</v>
+        <v>5381</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-4921</v>
+        <v>-4528</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J130" s="5" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -6361,26 +6361,26 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>Air Arabia Egypt E5-317</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>7452</v>
+        <v>6267</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-2517</v>
+        <v>-3642</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J131" s="5" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6406,17 +6406,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>7831</v>
+        <v>6267</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-2138</v>
+        <v>-3642</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6427,9 +6427,9 @@
       <c r="I132" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J132" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J132" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
@@ -6441,7 +6441,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -6451,30 +6451,30 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>8160</v>
+        <v>7237</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-1809</v>
+        <v>-2672</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J133" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6496,26 +6496,26 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>8160</v>
+        <v>7789</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-1809</v>
+        <v>-2120</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>14-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6541,30 +6541,30 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>8527</v>
+        <v>8115</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-1442</v>
+        <v>-1794</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J135" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,36 +6576,36 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>5048</v>
+        <v>8466</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-4921</v>
+        <v>-1443</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J136" s="5" t="inlineStr">
         <is>
@@ -6621,36 +6621,36 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>6319</v>
+        <v>9420</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-3650</v>
+        <v>-489</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J137" s="5" t="inlineStr">
         <is>
@@ -6666,36 +6666,36 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>7452</v>
+        <v>9420</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-2517</v>
+        <v>-489</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J138" s="5" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -6721,26 +6721,26 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>7831</v>
+        <v>6886</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-2138</v>
+        <v>-3023</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6766,26 +6766,26 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>8160</v>
+        <v>7488</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-1809</v>
+        <v>-2421</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,30 +6811,30 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>8527</v>
+        <v>7789</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-1442</v>
+        <v>-2120</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J141" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,30 +6856,30 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>9489</v>
+        <v>8115</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-480</v>
+        <v>-1794</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J142" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J142" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K142" s="2" t="inlineStr">
@@ -6891,7 +6891,7 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -6901,30 +6901,30 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>9489</v>
+        <v>8115</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>-480</v>
+        <v>-1794</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J143" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J143" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K143" s="2" t="inlineStr">
@@ -6936,40 +6936,40 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>5048</v>
+        <v>8115</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-4921</v>
+        <v>-1794</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J144" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J144" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K144" s="2" t="inlineStr">
@@ -6981,7 +6981,7 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -6991,17 +6991,17 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-317</t>
+          <t>Nile Air NP-331</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>6319</v>
+        <v>7789</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-3650</v>
+        <v>-2120</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>30</v>
@@ -7012,9 +7012,9 @@
       <c r="I145" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J145" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J145" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K145" s="2" t="inlineStr">
@@ -7026,7 +7026,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -7036,30 +7036,30 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>6319</v>
+        <v>8115</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-3650</v>
+        <v>-1794</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J146" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K146" s="2" t="inlineStr">
@@ -7071,7 +7071,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -7081,30 +7081,30 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>7831</v>
+        <v>8115</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-2138</v>
+        <v>-1794</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J147" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J147" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K147" s="2" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -7126,26 +7126,26 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>7831</v>
+        <v>8115</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>-2138</v>
+        <v>-1794</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -7171,17 +7171,17 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>23</v>
@@ -7206,7 +7206,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -7216,30 +7216,30 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>8527</v>
+        <v>7789</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-1442</v>
+        <v>-2120</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J150" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K150" s="2" t="inlineStr">
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7265,26 +7265,26 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>9489</v>
+        <v>8115</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-480</v>
+        <v>-1794</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J151" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K151" s="2" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7310,26 +7310,26 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>9489</v>
+        <v>8115</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-480</v>
+        <v>-1794</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J152" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K152" s="2" t="inlineStr">
@@ -7341,36 +7341,36 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>7831</v>
+        <v>8115</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-2138</v>
+        <v>-1794</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J153" s="3" t="inlineStr">
         <is>
@@ -7386,12 +7386,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -7400,13 +7400,13 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>23</v>
@@ -7431,36 +7431,36 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>8160</v>
+        <v>5255</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-1809</v>
+        <v>-4654</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J155" s="3" t="inlineStr">
         <is>
@@ -7476,36 +7476,36 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>8160</v>
+        <v>6886</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-1809</v>
+        <v>-3023</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J156" s="3" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -7531,26 +7531,26 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>5301</v>
+        <v>7789</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-4668</v>
+        <v>-2120</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -7576,30 +7576,30 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>6248</v>
+        <v>8115</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-3721</v>
+        <v>-1794</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J158" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
@@ -7611,7 +7611,7 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -7621,26 +7621,26 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>6945</v>
+        <v>8115</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-3024</v>
+        <v>-1794</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J159" s="3" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -7666,26 +7666,26 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-331</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>7831</v>
+        <v>8115</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-2138</v>
+        <v>-1794</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J160" s="3" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -7715,13 +7715,13 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>23</v>
@@ -7746,7 +7746,7 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -7756,26 +7756,26 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>8160</v>
+        <v>5255</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-1809</v>
+        <v>-4654</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J162" s="3" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -7801,26 +7801,26 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>8160</v>
+        <v>7789</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-1809</v>
+        <v>-2120</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J163" s="3" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -7846,17 +7846,17 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-1809</v>
+        <v>-1794</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>23</v>
@@ -7881,7 +7881,7 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -7891,26 +7891,26 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>5807</v>
+        <v>8115</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-4162</v>
+        <v>-1794</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J165" s="3" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -7936,26 +7936,26 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>6945</v>
+        <v>8115</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-3024</v>
+        <v>-1794</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J166" s="3" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -7981,26 +7981,26 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>7831</v>
+        <v>9269</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>9969</v>
+        <v>9909</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-2138</v>
+        <v>-640</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J167" s="3" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -8026,30 +8026,30 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>8160</v>
+        <v>7488</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-1809</v>
+        <v>-8617</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J168" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J168" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr">
@@ -8061,7 +8061,7 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -8075,13 +8075,13 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-1809</v>
+        <v>-7990</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>23</v>
@@ -8092,9 +8092,9 @@
       <c r="I169" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J169" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J169" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K169" s="2" t="inlineStr">
@@ -8106,7 +8106,7 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -8120,13 +8120,13 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-1809</v>
+        <v>-7990</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>23</v>
@@ -8137,9 +8137,9 @@
       <c r="I170" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J170" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J170" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K170" s="2" t="inlineStr">
@@ -8151,7 +8151,7 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -8165,13 +8165,13 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>8160</v>
+        <v>8115</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-1809</v>
+        <v>-7990</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>23</v>
@@ -8182,9 +8182,9 @@
       <c r="I171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J171" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J171" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K171" s="2" t="inlineStr">
@@ -8196,7 +8196,7 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-231</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>7831</v>
+        <v>8115</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-2138</v>
+        <v>-7990</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J172" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
@@ -8241,7 +8241,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -8251,30 +8251,30 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>8160</v>
+        <v>9269</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>-1809</v>
+        <v>-6836</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J173" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J173" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -8296,30 +8296,30 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>8160</v>
+        <v>12769</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-1809</v>
+        <v>-3336</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J174" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J174" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K174" s="2" t="inlineStr">
@@ -8331,7 +8331,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>28-MAY-26</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -8341,17 +8341,17 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Saudia SV-6447</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>8160</v>
+        <v>14600</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-1809</v>
+        <v>-1505</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>23</v>
@@ -8376,40 +8376,40 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>Nile Air NP-231</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>8160</v>
+        <v>12769</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-1809</v>
+        <v>-3336</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J176" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J176" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
@@ -8421,36 +8421,36 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>7831</v>
+        <v>17285</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-2138</v>
+        <v>1180</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J177" s="3" t="inlineStr">
         <is>
@@ -8466,36 +8466,36 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>8160</v>
+        <v>17285</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-1809</v>
+        <v>1180</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J178" s="3" t="inlineStr">
         <is>
@@ -8511,36 +8511,36 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>8160</v>
+        <v>17285</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-1809</v>
+        <v>1180</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J179" s="3" t="inlineStr">
         <is>
@@ -8556,36 +8556,36 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>SM-433</t>
+          <t>SM-439</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>8160</v>
+        <v>17285</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>9969</v>
+        <v>16105</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-1809</v>
+        <v>1180</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I180" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J180" s="3" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -8611,26 +8611,26 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-912</t>
+          <t>flynas XY-895</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>5301</v>
+        <v>9395</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>-10880</v>
+        <v>-6710</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J181" s="4" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -8656,26 +8656,26 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-895</t>
+          <t>flyadeal F3-912</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>6945</v>
+        <v>12531</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-9236</v>
+        <v>-3574</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J182" s="4" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -8701,30 +8701,30 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-697</t>
+          <t>Nile Air NP-131</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>8160</v>
+        <v>12769</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-8021</v>
+        <v>-3336</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J183" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J183" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K183" s="2" t="inlineStr">
@@ -8736,7 +8736,7 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -8746,30 +8746,30 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-687</t>
+          <t>Air Arabia Egypt E5-317</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>8160</v>
+        <v>15410</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>-8021</v>
+        <v>-695</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J184" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J184" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K184" s="2" t="inlineStr">
@@ -8781,7 +8781,7 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -8791,30 +8791,30 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-683</t>
+          <t>Air Arabia Egypt E5-315</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>8160</v>
+        <v>15410</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>-8021</v>
+        <v>-695</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J185" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K185" s="2" t="inlineStr">
@@ -8826,7 +8826,7 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -8836,30 +8836,30 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-681</t>
+          <t>EgyptAir MS-687</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>8160</v>
+        <v>17285</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>-8021</v>
+        <v>1180</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J186" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K186" s="2" t="inlineStr">
@@ -8871,7 +8871,7 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -8881,30 +8881,30 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-131</t>
+          <t>EgyptAir MS-683</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>12854</v>
+        <v>17285</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>-3327</v>
+        <v>1180</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J187" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K187" s="2" t="inlineStr">
@@ -8916,7 +8916,7 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>28-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -8926,26 +8926,26 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-6447</t>
+          <t>EgyptAir MS-681</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>14726</v>
+        <v>17285</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>-1455</v>
+        <v>1180</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I188" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J188" s="3" t="inlineStr">
         <is>
@@ -8961,763 +8961,43 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>30-MAY-26</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>SM-439</t>
+          <t>SM-433</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-315</t>
+          <t>EgyptAir MS-697</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>6319</v>
+        <v>17285</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>16181</v>
+        <v>16105</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>-9862</v>
+        <v>1180</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I189" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J189" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-912</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="n">
-        <v>7325</v>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F190" s="2" t="n">
-        <v>-8856</v>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H190" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I190" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J190" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-895</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="n">
-        <v>7578</v>
-      </c>
-      <c r="E191" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F191" s="2" t="n">
-        <v>-8603</v>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H191" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I191" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J191" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-231</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>12854</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F192" s="2" t="n">
-        <v>-3327</v>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H192" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I192" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F193" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H193" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I193" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J193" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H194" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I194" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J194" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-683</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H195" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I195" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J195" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>SM-439</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-681</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F196" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H196" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I196" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J196" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-912</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="n">
-        <v>8843</v>
-      </c>
-      <c r="E197" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F197" s="2" t="n">
-        <v>-7338</v>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H197" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I197" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J197" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-895</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="n">
-        <v>11880</v>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F198" s="2" t="n">
-        <v>-4301</v>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H198" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I198" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J198" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-131</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="n">
-        <v>12854</v>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F199" s="2" t="n">
-        <v>-3327</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H199" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I199" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-317</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="n">
-        <v>15536</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F200" s="2" t="n">
-        <v>-645</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H200" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-315</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="n">
-        <v>15536</v>
-      </c>
-      <c r="E201" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F201" s="2" t="n">
-        <v>-645</v>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H201" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I201" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-687</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F202" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H202" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I202" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J202" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-683</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F203" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H203" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I203" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J203" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-681</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F204" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H204" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I204" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J204" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>SM-433</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-697</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>17383</v>
-      </c>
-      <c r="E205" s="2" t="n">
-        <v>16181</v>
-      </c>
-      <c r="F205" s="2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H205" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I205" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J205" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_DMM_threats.xlsx
+++ b/excel_routes/route_CAI_DMM_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B22E76-FC94-41CF-B8AD-9827E9CE619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D760F-DC33-4587-817C-2EF720FF96BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -60,25 +60,43 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>30-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-433</t>
+  </si>
+  <si>
+    <t>Nile Air NP-231</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>flyadeal F3-912</t>
+  </si>
+  <si>
+    <t>31-JAN-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-154</t>
+  </si>
+  <si>
+    <t>Nile Air NP-131</t>
+  </si>
+  <si>
+    <t>flynas XY-855</t>
+  </si>
+  <si>
     <t>05-FEB-26</t>
   </si>
   <si>
-    <t>SM-433</t>
-  </si>
-  <si>
-    <t>flynas XY-855</t>
-  </si>
-  <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-154</t>
-  </si>
-  <si>
-    <t>Nile Air NP-131</t>
+    <t>EgyptAir MS-681</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-683</t>
   </si>
   <si>
     <t>06-FEB-26</t>
@@ -87,64 +105,175 @@
     <t>Nesma Airlines NE-152</t>
   </si>
   <si>
-    <t>Nile Air NP-231</t>
-  </si>
-  <si>
     <t>07-FEB-26</t>
   </si>
   <si>
+    <t>12-FEB-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-687</t>
+  </si>
+  <si>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
     <t>Air Arabia Egypt E5-315</t>
   </si>
   <si>
-    <t>10-FEB-26</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-683</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-681</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>13-FEB-26</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-150</t>
-  </si>
-  <si>
-    <t>19-FEB-26</t>
+    <t>21-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-895</t>
+  </si>
+  <si>
+    <t>28-FEB-26</t>
+  </si>
+  <si>
+    <t>07-MAR-26</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
   </si>
   <si>
     <t>Nile Air NP-331</t>
   </si>
   <si>
-    <t>21-FEB-26</t>
-  </si>
-  <si>
-    <t>24-FEB-26</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>27-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
-  </si>
-  <si>
-    <t>03-MAR-26</t>
-  </si>
-  <si>
-    <t>flynas XY-895</t>
+    <t>27-MAR-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-311</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>30-MAR-26</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-697</t>
+  </si>
+  <si>
+    <t>02-APR-26</t>
+  </si>
+  <si>
+    <t>03-APR-26</t>
+  </si>
+  <si>
+    <t>SM-439</t>
+  </si>
+  <si>
+    <t>04-APR-26</t>
+  </si>
+  <si>
+    <t>05-APR-26</t>
+  </si>
+  <si>
+    <t>06-APR-26</t>
+  </si>
+  <si>
+    <t>07-APR-26</t>
+  </si>
+  <si>
+    <t>08-APR-26</t>
+  </si>
+  <si>
+    <t>09-APR-26</t>
+  </si>
+  <si>
+    <t>10-APR-26</t>
+  </si>
+  <si>
+    <t>11-APR-26</t>
+  </si>
+  <si>
+    <t>12-APR-26</t>
+  </si>
+  <si>
+    <t>13-APR-26</t>
+  </si>
+  <si>
+    <t>14-APR-26</t>
+  </si>
+  <si>
+    <t>25-APR-26</t>
+  </si>
+  <si>
+    <t>10-MAY-26</t>
+  </si>
+  <si>
+    <t>11-MAY-26</t>
+  </si>
+  <si>
+    <t>12-MAY-26</t>
+  </si>
+  <si>
+    <t>13-MAY-26</t>
+  </si>
+  <si>
+    <t>14-MAY-26</t>
+  </si>
+  <si>
+    <t>15-MAY-26</t>
+  </si>
+  <si>
+    <t>16-MAY-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-317</t>
+  </si>
+  <si>
+    <t>17-MAY-26</t>
+  </si>
+  <si>
+    <t>18-MAY-26</t>
+  </si>
+  <si>
+    <t>19-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>21-MAY-26</t>
+  </si>
+  <si>
+    <t>28-MAY-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-6447</t>
+  </si>
+  <si>
+    <t>29-MAY-26</t>
+  </si>
+  <si>
+    <t>30-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -171,7 +300,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +317,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +368,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +679,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +693,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,22 +743,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>8159</v>
+        <v>12769</v>
       </c>
       <c r="E2" s="2">
-        <v>9907</v>
+        <v>14475</v>
       </c>
       <c r="F2" s="2">
-        <v>-1748</v>
+        <v>-1706</v>
       </c>
       <c r="G2" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -631,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>8410</v>
+        <v>13509</v>
       </c>
       <c r="E3" s="2">
-        <v>9907</v>
+        <v>14475</v>
       </c>
       <c r="F3" s="2">
-        <v>-1497</v>
+        <v>-966</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -657,22 +804,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>8536</v>
+        <v>11427</v>
       </c>
       <c r="E4" s="2">
-        <v>9907</v>
+        <v>13170</v>
       </c>
       <c r="F4" s="2">
-        <v>-1371</v>
+        <v>-1743</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -692,7 +839,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -701,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>8410</v>
+        <v>12769</v>
       </c>
       <c r="E5" s="2">
-        <v>9907</v>
+        <v>13170</v>
       </c>
       <c r="F5" s="2">
-        <v>-1497</v>
+        <v>-401</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -727,7 +874,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -736,22 +883,22 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>8536</v>
+        <v>13283</v>
       </c>
       <c r="E6" s="2">
-        <v>9907</v>
+        <v>13170</v>
       </c>
       <c r="F6" s="2">
-        <v>-1371</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -768,16 +915,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>10057</v>
+        <v>7664</v>
       </c>
       <c r="E7" s="2">
-        <v>10875</v>
+        <v>8931</v>
       </c>
       <c r="F7" s="2">
-        <v>-818</v>
+        <v>-1267</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -803,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>10183</v>
+        <v>8542</v>
       </c>
       <c r="E8" s="2">
-        <v>10875</v>
+        <v>8931</v>
       </c>
       <c r="F8" s="2">
-        <v>-692</v>
+        <v>-389</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -841,22 +988,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>10861</v>
+        <v>9671</v>
       </c>
       <c r="E9" s="2">
-        <v>10875</v>
+        <v>8931</v>
       </c>
       <c r="F9" s="2">
-        <v>-14</v>
+        <v>740</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -867,31 +1014,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="2">
-        <v>6298</v>
+        <v>9771</v>
       </c>
       <c r="E10" s="2">
-        <v>6776</v>
+        <v>8931</v>
       </c>
       <c r="F10" s="2">
-        <v>-478</v>
+        <v>840</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -902,22 +1049,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>6437</v>
+        <v>7664</v>
       </c>
       <c r="E11" s="2">
-        <v>6776</v>
+        <v>8090</v>
       </c>
       <c r="F11" s="2">
-        <v>-339</v>
+        <v>-426</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -937,31 +1084,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>8146</v>
+        <v>7789</v>
       </c>
       <c r="E12" s="2">
-        <v>6776</v>
+        <v>8090</v>
       </c>
       <c r="F12" s="2">
-        <v>1370</v>
+        <v>-301</v>
       </c>
       <c r="G12" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -972,22 +1119,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>8146</v>
+        <v>9771</v>
       </c>
       <c r="E13" s="2">
-        <v>6776</v>
+        <v>8090</v>
       </c>
       <c r="F13" s="2">
-        <v>1370</v>
+        <v>1681</v>
       </c>
       <c r="G13" s="2">
         <v>46</v>
@@ -1013,25 +1160,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>5883</v>
+        <v>9671</v>
       </c>
       <c r="E14" s="2">
-        <v>6776</v>
+        <v>8090</v>
       </c>
       <c r="F14" s="2">
-        <v>-893</v>
+        <v>1581</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
@@ -1042,22 +1189,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>5971</v>
+        <v>5882</v>
       </c>
       <c r="E15" s="2">
-        <v>6776</v>
+        <v>6196</v>
       </c>
       <c r="F15" s="2">
-        <v>-805</v>
+        <v>-314</v>
       </c>
       <c r="G15" s="2">
         <v>30</v>
@@ -1083,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
-        <v>5971</v>
+        <v>5958</v>
       </c>
       <c r="E16" s="2">
-        <v>6198</v>
+        <v>6196</v>
       </c>
       <c r="F16" s="2">
-        <v>-227</v>
+        <v>-238</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1112,31 +1259,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="2">
-        <v>5675</v>
+        <v>8140</v>
       </c>
       <c r="E17" s="2">
-        <v>6198</v>
+        <v>6196</v>
       </c>
       <c r="F17" s="2">
-        <v>-523</v>
+        <v>1944</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
@@ -1153,16 +1300,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>4639</v>
+        <v>5958</v>
       </c>
       <c r="E18" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F18" s="2">
-        <v>-716</v>
+        <v>-238</v>
       </c>
       <c r="G18" s="2">
         <v>30</v>
@@ -1188,25 +1335,25 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
-        <v>5343</v>
+        <v>8140</v>
       </c>
       <c r="E19" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F19" s="2">
-        <v>-12</v>
+        <v>1944</v>
       </c>
       <c r="G19" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -1217,22 +1364,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D20" s="2">
-        <v>4639</v>
+        <v>5658</v>
       </c>
       <c r="E20" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F20" s="2">
-        <v>-716</v>
+        <v>-538</v>
       </c>
       <c r="G20" s="2">
         <v>30</v>
@@ -1252,22 +1399,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>5343</v>
+        <v>5882</v>
       </c>
       <c r="E21" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F21" s="2">
-        <v>-12</v>
+        <v>-314</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
@@ -1287,22 +1434,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
-        <v>5111</v>
+        <v>5958</v>
       </c>
       <c r="E22" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F22" s="2">
-        <v>-244</v>
+        <v>-238</v>
       </c>
       <c r="G22" s="2">
         <v>30</v>
@@ -1322,31 +1469,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
-        <v>5343</v>
+        <v>8140</v>
       </c>
       <c r="E23" s="2">
-        <v>5355</v>
+        <v>6196</v>
       </c>
       <c r="F23" s="2">
-        <v>-12</v>
+        <v>1944</v>
       </c>
       <c r="G23" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2">
         <v>30</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
@@ -1357,22 +1504,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
-        <v>5343</v>
+        <v>5095</v>
       </c>
       <c r="E24" s="2">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="F24" s="2">
-        <v>-327</v>
+        <v>-574</v>
       </c>
       <c r="G24" s="2">
         <v>30</v>
@@ -1392,22 +1539,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
-        <v>5343</v>
+        <v>5356</v>
       </c>
       <c r="E25" s="2">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="F25" s="2">
-        <v>-327</v>
+        <v>-313</v>
       </c>
       <c r="G25" s="2">
         <v>30</v>
@@ -1427,31 +1574,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
-        <v>4639</v>
+        <v>6635</v>
       </c>
       <c r="E26" s="2">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="F26" s="2">
-        <v>-716</v>
+        <v>1292</v>
       </c>
       <c r="G26" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2">
         <v>30</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>14</v>
@@ -1462,31 +1609,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
+        <v>6635</v>
+      </c>
+      <c r="E27" s="2">
         <v>5343</v>
       </c>
-      <c r="E27" s="2">
-        <v>5355</v>
-      </c>
       <c r="F27" s="2">
-        <v>-12</v>
+        <v>1292</v>
       </c>
       <c r="G27" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2">
         <v>30</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>14</v>
@@ -1503,25 +1650,25 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
-        <v>6650</v>
+        <v>5095</v>
       </c>
       <c r="E28" s="2">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="F28" s="2">
-        <v>1295</v>
+        <v>-248</v>
       </c>
       <c r="G28" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2">
         <v>30</v>
       </c>
       <c r="I28" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>14</v>
@@ -1538,16 +1685,16 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
+        <v>5095</v>
+      </c>
+      <c r="E29" s="2">
         <v>5343</v>
       </c>
-      <c r="E29" s="2">
-        <v>5670</v>
-      </c>
       <c r="F29" s="2">
-        <v>-327</v>
+        <v>-248</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -1573,25 +1720,25 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
+        <v>6635</v>
+      </c>
+      <c r="E30" s="2">
         <v>5343</v>
       </c>
-      <c r="E30" s="2">
-        <v>5670</v>
-      </c>
       <c r="F30" s="2">
-        <v>-327</v>
+        <v>1292</v>
       </c>
       <c r="G30" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2">
         <v>30</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>14</v>
@@ -1602,31 +1749,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>5111</v>
+        <v>6635</v>
       </c>
       <c r="E31" s="2">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="F31" s="2">
-        <v>-244</v>
+        <v>1292</v>
       </c>
       <c r="G31" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2">
         <v>30</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>14</v>
@@ -1643,25 +1790,25 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
+        <v>6384</v>
+      </c>
+      <c r="E32" s="2">
         <v>5343</v>
       </c>
-      <c r="E32" s="2">
-        <v>5355</v>
-      </c>
       <c r="F32" s="2">
-        <v>-12</v>
+        <v>1041</v>
       </c>
       <c r="G32" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>14</v>
@@ -1672,22 +1819,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
+        <v>5095</v>
+      </c>
+      <c r="E33" s="2">
         <v>5343</v>
       </c>
-      <c r="E33" s="2">
-        <v>5355</v>
-      </c>
       <c r="F33" s="2">
-        <v>-12</v>
+        <v>-248</v>
       </c>
       <c r="G33" s="2">
         <v>30</v>
@@ -1707,31 +1854,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
+        <v>6384</v>
+      </c>
+      <c r="E34" s="2">
         <v>5343</v>
       </c>
-      <c r="E34" s="2">
-        <v>5355</v>
-      </c>
       <c r="F34" s="2">
-        <v>-12</v>
+        <v>1041</v>
       </c>
       <c r="G34" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2">
         <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>14</v>
@@ -1742,22 +1889,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
-        <v>6399</v>
+        <v>6384</v>
       </c>
       <c r="E35" s="2">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="F35" s="2">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G35" s="2">
         <v>40</v>
@@ -1777,36 +1924,5391 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F36" s="2">
+        <v>853</v>
+      </c>
+      <c r="G36" s="2">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1330</v>
+      </c>
+      <c r="G37" s="2">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1330</v>
+      </c>
+      <c r="G38" s="2">
+        <v>46</v>
+      </c>
+      <c r="H38" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2">
+        <v>17448</v>
+      </c>
+      <c r="E39" s="2">
+        <v>18012</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-564</v>
+      </c>
+      <c r="G39" s="2">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17560</v>
+      </c>
+      <c r="E40" s="2">
+        <v>18012</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-452</v>
+      </c>
+      <c r="G40" s="2">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2">
+        <v>15410</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20634</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-5224</v>
+      </c>
+      <c r="G41" s="2">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18927</v>
+      </c>
+      <c r="E42" s="2">
+        <v>23632</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-4705</v>
+      </c>
+      <c r="G42" s="2">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2">
+        <v>23042</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23632</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-590</v>
+      </c>
+      <c r="G43" s="2">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="2">
+        <v>11823</v>
+      </c>
+      <c r="E44" s="2">
+        <v>14638</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-2815</v>
+      </c>
+      <c r="G44" s="2">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-4930</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>15</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F46" s="2">
+        <v>489</v>
+      </c>
+      <c r="G46" s="2">
+        <v>46</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F47" s="2">
+        <v>489</v>
+      </c>
+      <c r="G47" s="2">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F48" s="2">
+        <v>489</v>
+      </c>
+      <c r="G48" s="2">
+        <v>46</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-1204</v>
+      </c>
+      <c r="G49" s="2">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7135</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-303</v>
+      </c>
+      <c r="G50" s="2">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1028</v>
+      </c>
+      <c r="G51" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8767</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1329</v>
+      </c>
+      <c r="G52" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1505</v>
+      </c>
+      <c r="G53" s="2">
+        <v>46</v>
+      </c>
+      <c r="H53" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1505</v>
+      </c>
+      <c r="G54" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7990</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-100</v>
+      </c>
+      <c r="G55" s="2">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F56" s="2">
+        <v>376</v>
+      </c>
+      <c r="G56" s="2">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F57" s="2">
+        <v>853</v>
+      </c>
+      <c r="G57" s="2">
+        <v>46</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9269</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1179</v>
+      </c>
+      <c r="G58" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1330</v>
+      </c>
+      <c r="G59" s="2">
+        <v>46</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9520</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1430</v>
+      </c>
+      <c r="G60" s="2">
+        <v>46</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-4930</v>
+      </c>
+      <c r="G61" s="2">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2">
+        <v>15</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6267</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-2664</v>
+      </c>
+      <c r="G62" s="2">
+        <v>30</v>
+      </c>
+      <c r="H62" s="2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6886</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-2045</v>
+      </c>
+      <c r="G63" s="2">
+        <v>20</v>
+      </c>
+      <c r="H63" s="2">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E64" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F64" s="2">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2">
+        <v>46</v>
+      </c>
+      <c r="H64" s="2">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8931</v>
+      </c>
+      <c r="F65" s="2">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2">
+        <v>46</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1680</v>
+      </c>
+      <c r="G66" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2157</v>
+      </c>
+      <c r="G67" s="2">
+        <v>46</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2157</v>
+      </c>
+      <c r="G68" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8943</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2157</v>
+      </c>
+      <c r="G69" s="2">
+        <v>46</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6197</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-589</v>
+      </c>
+      <c r="G70" s="2">
+        <v>30</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-552</v>
+      </c>
+      <c r="G71" s="2">
+        <v>30</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7388</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F72" s="2">
+        <v>602</v>
+      </c>
+      <c r="G72" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" s="2">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E73" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1680</v>
+      </c>
+      <c r="G73" s="2">
+        <v>46</v>
+      </c>
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G74" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" s="2">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4628</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-1568</v>
+      </c>
+      <c r="G75" s="2">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2">
+        <v>10</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G76" s="2">
+        <v>46</v>
+      </c>
+      <c r="H76" s="2">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E77" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G77" s="2">
+        <v>46</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7011</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F78" s="2">
+        <v>815</v>
+      </c>
+      <c r="G78" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" s="2">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G79" s="2">
+        <v>46</v>
+      </c>
+      <c r="H79" s="2">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7388</v>
+      </c>
+      <c r="E80" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1192</v>
+      </c>
+      <c r="G80" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" s="2">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E81" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-552</v>
+      </c>
+      <c r="G81" s="2">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6268</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-518</v>
+      </c>
+      <c r="G82" s="2">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="2">
+        <v>7388</v>
+      </c>
+      <c r="E83" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F83" s="2">
+        <v>602</v>
+      </c>
+      <c r="G83" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" s="2">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E84" s="2">
+        <v>6786</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1680</v>
+      </c>
+      <c r="G84" s="2">
+        <v>46</v>
+      </c>
+      <c r="H84" s="2">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7011</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F85" s="2">
+        <v>815</v>
+      </c>
+      <c r="G85" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7011</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F86" s="2">
+        <v>815</v>
+      </c>
+      <c r="G86" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" s="2">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4628</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-1568</v>
+      </c>
+      <c r="G87" s="2">
+        <v>20</v>
+      </c>
+      <c r="H87" s="2">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2">
+        <v>10</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E88" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G88" s="2">
+        <v>46</v>
+      </c>
+      <c r="H88" s="2">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7011</v>
+      </c>
+      <c r="E89" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F89" s="2">
+        <v>815</v>
+      </c>
+      <c r="G89" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E90" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G90" s="2">
+        <v>46</v>
+      </c>
+      <c r="H90" s="2">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7237</v>
+      </c>
+      <c r="E91" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F91" s="2">
+        <v>-2672</v>
+      </c>
+      <c r="G91" s="2">
+        <v>30</v>
+      </c>
+      <c r="H91" s="2">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7764</v>
+      </c>
+      <c r="E92" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-2145</v>
+      </c>
+      <c r="G92" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" s="2">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2">
-        <v>6399</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5355</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1044</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="D93" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E93" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G93" s="2">
+        <v>30</v>
+      </c>
+      <c r="H93" s="2">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E94" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G94" s="2">
+        <v>23</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
+        <v>7</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E95" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G95" s="2">
+        <v>23</v>
+      </c>
+      <c r="H95" s="2">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2">
+        <v>7</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E96" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="G96" s="2">
+        <v>46</v>
+      </c>
+      <c r="H96" s="2">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E97" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F97" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G97" s="2">
+        <v>20</v>
+      </c>
+      <c r="H97" s="2">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2">
+        <v>10</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6197</v>
+      </c>
+      <c r="E98" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F98" s="2">
+        <v>-3712</v>
+      </c>
+      <c r="G98" s="2">
+        <v>30</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7237</v>
+      </c>
+      <c r="E99" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-2672</v>
+      </c>
+      <c r="G99" s="2">
+        <v>30</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E100" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G100" s="2">
+        <v>30</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E101" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G101" s="2">
+        <v>23</v>
+      </c>
+      <c r="H101" s="2">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2">
+        <v>7</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E102" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G102" s="2">
+        <v>23</v>
+      </c>
+      <c r="H102" s="2">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2">
+        <v>7</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E103" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G103" s="2">
+        <v>23</v>
+      </c>
+      <c r="H103" s="2">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2">
+        <v>7</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E104" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F104" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G104" s="2">
+        <v>23</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>7</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E105" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G105" s="2">
+        <v>20</v>
+      </c>
+      <c r="H105" s="2">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2">
+        <v>10</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7237</v>
+      </c>
+      <c r="E106" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-2672</v>
+      </c>
+      <c r="G106" s="2">
+        <v>30</v>
+      </c>
+      <c r="H106" s="2">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E107" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F107" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G107" s="2">
+        <v>30</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E108" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G108" s="2">
+        <v>23</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2">
+        <v>7</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E109" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F109" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G109" s="2">
+        <v>23</v>
+      </c>
+      <c r="H109" s="2">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2">
+        <v>7</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E110" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F110" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G110" s="2">
+        <v>23</v>
+      </c>
+      <c r="H110" s="2">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2">
+        <v>7</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E111" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F111" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="G111" s="2">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E112" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F112" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G112" s="2">
+        <v>15</v>
+      </c>
+      <c r="H112" s="2">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2">
+        <v>15</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E113" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F113" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G113" s="2">
+        <v>20</v>
+      </c>
+      <c r="H113" s="2">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2">
+        <v>10</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E114" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F114" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G114" s="2">
+        <v>30</v>
+      </c>
+      <c r="H114" s="2">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E115" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F115" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G115" s="2">
+        <v>23</v>
+      </c>
+      <c r="H115" s="2">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2">
+        <v>7</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E116" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F116" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G116" s="2">
+        <v>23</v>
+      </c>
+      <c r="H116" s="2">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2">
+        <v>7</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E117" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F117" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G117" s="2">
+        <v>23</v>
+      </c>
+      <c r="H117" s="2">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2">
+        <v>7</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E118" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F118" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G118" s="2">
+        <v>23</v>
+      </c>
+      <c r="H118" s="2">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2">
+        <v>7</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E119" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F119" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G119" s="2">
+        <v>15</v>
+      </c>
+      <c r="H119" s="2">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2">
+        <v>15</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2">
+        <v>5004</v>
+      </c>
+      <c r="E120" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F120" s="2">
+        <v>-4905</v>
+      </c>
+      <c r="G120" s="2">
+        <v>20</v>
+      </c>
+      <c r="H120" s="2">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2">
+        <v>10</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E121" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F121" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G121" s="2">
+        <v>30</v>
+      </c>
+      <c r="H121" s="2">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E122" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F122" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G122" s="2">
+        <v>23</v>
+      </c>
+      <c r="H122" s="2">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2">
+        <v>7</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E123" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F123" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G123" s="2">
+        <v>23</v>
+      </c>
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2">
+        <v>7</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E124" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F124" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="G124" s="2">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E125" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F125" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G125" s="2">
+        <v>30</v>
+      </c>
+      <c r="H125" s="2">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E126" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F126" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G126" s="2">
+        <v>23</v>
+      </c>
+      <c r="H126" s="2">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2">
+        <v>7</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E127" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F127" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="G127" s="2">
+        <v>46</v>
+      </c>
+      <c r="H127" s="2">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E128" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F128" s="2">
+        <v>-489</v>
+      </c>
+      <c r="G128" s="2">
+        <v>46</v>
+      </c>
+      <c r="H128" s="2">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E129" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F129" s="2">
+        <v>-489</v>
+      </c>
+      <c r="G129" s="2">
+        <v>46</v>
+      </c>
+      <c r="H129" s="2">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5381</v>
+      </c>
+      <c r="E130" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F130" s="2">
+        <v>-4528</v>
+      </c>
+      <c r="G130" s="2">
+        <v>20</v>
+      </c>
+      <c r="H130" s="2">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2">
+        <v>10</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6267</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-3642</v>
+      </c>
+      <c r="G131" s="2">
+        <v>30</v>
+      </c>
+      <c r="H131" s="2">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6267</v>
+      </c>
+      <c r="E132" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-3642</v>
+      </c>
+      <c r="G132" s="2">
+        <v>30</v>
+      </c>
+      <c r="H132" s="2">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="2">
+        <v>7237</v>
+      </c>
+      <c r="E133" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-2672</v>
+      </c>
+      <c r="G133" s="2">
+        <v>30</v>
+      </c>
+      <c r="H133" s="2">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E134" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G134" s="2">
+        <v>30</v>
+      </c>
+      <c r="H134" s="2">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E135" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G135" s="2">
+        <v>23</v>
+      </c>
+      <c r="H135" s="2">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2">
+        <v>7</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="2">
+        <v>8466</v>
+      </c>
+      <c r="E136" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="G136" s="2">
+        <v>46</v>
+      </c>
+      <c r="H136" s="2">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E137" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-489</v>
+      </c>
+      <c r="G137" s="2">
+        <v>46</v>
+      </c>
+      <c r="H137" s="2">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="2">
+        <v>9420</v>
+      </c>
+      <c r="E138" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-489</v>
+      </c>
+      <c r="G138" s="2">
+        <v>46</v>
+      </c>
+      <c r="H138" s="2">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6886</v>
+      </c>
+      <c r="E139" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-3023</v>
+      </c>
+      <c r="G139" s="2">
+        <v>20</v>
+      </c>
+      <c r="H139" s="2">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2">
+        <v>10</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="2">
+        <v>7488</v>
+      </c>
+      <c r="E140" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-2421</v>
+      </c>
+      <c r="G140" s="2">
+        <v>30</v>
+      </c>
+      <c r="H140" s="2">
+        <v>30</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E141" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G141" s="2">
+        <v>30</v>
+      </c>
+      <c r="H141" s="2">
+        <v>30</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E142" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G142" s="2">
+        <v>23</v>
+      </c>
+      <c r="H142" s="2">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2">
+        <v>7</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E143" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G143" s="2">
+        <v>23</v>
+      </c>
+      <c r="H143" s="2">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2">
+        <v>7</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E144" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G144" s="2">
+        <v>23</v>
+      </c>
+      <c r="H144" s="2">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2">
+        <v>7</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E145" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G145" s="2">
+        <v>30</v>
+      </c>
+      <c r="H145" s="2">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E146" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G146" s="2">
+        <v>23</v>
+      </c>
+      <c r="H146" s="2">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2">
+        <v>7</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E147" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G147" s="2">
+        <v>23</v>
+      </c>
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
+        <v>7</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E148" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G148" s="2">
+        <v>23</v>
+      </c>
+      <c r="H148" s="2">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2">
+        <v>7</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E149" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G149" s="2">
+        <v>23</v>
+      </c>
+      <c r="H149" s="2">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2">
+        <v>7</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E150" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G150" s="2">
+        <v>30</v>
+      </c>
+      <c r="H150" s="2">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E151" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G151" s="2">
+        <v>23</v>
+      </c>
+      <c r="H151" s="2">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2">
+        <v>7</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E152" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G152" s="2">
+        <v>23</v>
+      </c>
+      <c r="H152" s="2">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2">
+        <v>7</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E153" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G153" s="2">
+        <v>23</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>7</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G154" s="2">
+        <v>23</v>
+      </c>
+      <c r="H154" s="2">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2">
+        <v>7</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="2">
+        <v>5255</v>
+      </c>
+      <c r="E155" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-4654</v>
+      </c>
+      <c r="G155" s="2">
+        <v>15</v>
+      </c>
+      <c r="H155" s="2">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2">
+        <v>15</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6886</v>
+      </c>
+      <c r="E156" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-3023</v>
+      </c>
+      <c r="G156" s="2">
+        <v>20</v>
+      </c>
+      <c r="H156" s="2">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2">
+        <v>10</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E157" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G157" s="2">
+        <v>30</v>
+      </c>
+      <c r="H157" s="2">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E158" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G158" s="2">
+        <v>23</v>
+      </c>
+      <c r="H158" s="2">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2">
+        <v>7</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E159" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G159" s="2">
+        <v>23</v>
+      </c>
+      <c r="H159" s="2">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2">
+        <v>7</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E160" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G160" s="2">
+        <v>23</v>
+      </c>
+      <c r="H160" s="2">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2">
+        <v>7</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E161" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G161" s="2">
+        <v>23</v>
+      </c>
+      <c r="H161" s="2">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2">
+        <v>7</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2">
+        <v>5255</v>
+      </c>
+      <c r="E162" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-4654</v>
+      </c>
+      <c r="G162" s="2">
+        <v>15</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2">
+        <v>15</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2">
+        <v>7789</v>
+      </c>
+      <c r="E163" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-2120</v>
+      </c>
+      <c r="G163" s="2">
+        <v>30</v>
+      </c>
+      <c r="H163" s="2">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E164" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G164" s="2">
+        <v>23</v>
+      </c>
+      <c r="H164" s="2">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2">
+        <v>7</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E165" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G165" s="2">
+        <v>23</v>
+      </c>
+      <c r="H165" s="2">
+        <v>30</v>
+      </c>
+      <c r="I165" s="2">
+        <v>7</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E166" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-1794</v>
+      </c>
+      <c r="G166" s="2">
+        <v>23</v>
+      </c>
+      <c r="H166" s="2">
+        <v>30</v>
+      </c>
+      <c r="I166" s="2">
+        <v>7</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="2">
+        <v>9269</v>
+      </c>
+      <c r="E167" s="2">
+        <v>9909</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-640</v>
+      </c>
+      <c r="G167" s="2">
         <v>40</v>
       </c>
-      <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="H167" s="2">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2">
         <v>-10</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2">
+        <v>7488</v>
+      </c>
+      <c r="E168" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-8617</v>
+      </c>
+      <c r="G168" s="2">
+        <v>30</v>
+      </c>
+      <c r="H168" s="2">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E169" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F169" s="2">
+        <v>-7990</v>
+      </c>
+      <c r="G169" s="2">
+        <v>23</v>
+      </c>
+      <c r="H169" s="2">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2">
+        <v>7</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E170" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-7990</v>
+      </c>
+      <c r="G170" s="2">
+        <v>23</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2">
+        <v>7</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E171" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F171" s="2">
+        <v>-7990</v>
+      </c>
+      <c r="G171" s="2">
+        <v>23</v>
+      </c>
+      <c r="H171" s="2">
+        <v>30</v>
+      </c>
+      <c r="I171" s="2">
+        <v>7</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D172" s="2">
+        <v>8115</v>
+      </c>
+      <c r="E172" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-7990</v>
+      </c>
+      <c r="G172" s="2">
+        <v>23</v>
+      </c>
+      <c r="H172" s="2">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2">
+        <v>7</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="2">
+        <v>9269</v>
+      </c>
+      <c r="E173" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-6836</v>
+      </c>
+      <c r="G173" s="2">
+        <v>40</v>
+      </c>
+      <c r="H173" s="2">
+        <v>30</v>
+      </c>
+      <c r="I173" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2">
+        <v>12769</v>
+      </c>
+      <c r="E174" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-3336</v>
+      </c>
+      <c r="G174" s="2">
+        <v>30</v>
+      </c>
+      <c r="H174" s="2">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D175" s="2">
+        <v>14600</v>
+      </c>
+      <c r="E175" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F175" s="2">
+        <v>-1505</v>
+      </c>
+      <c r="G175" s="2">
+        <v>23</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2">
+        <v>7</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="2">
+        <v>12769</v>
+      </c>
+      <c r="E176" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-3336</v>
+      </c>
+      <c r="G176" s="2">
+        <v>30</v>
+      </c>
+      <c r="H176" s="2">
+        <v>30</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E177" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F177" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G177" s="2">
+        <v>46</v>
+      </c>
+      <c r="H177" s="2">
+        <v>30</v>
+      </c>
+      <c r="I177" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E178" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F178" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G178" s="2">
+        <v>46</v>
+      </c>
+      <c r="H178" s="2">
+        <v>30</v>
+      </c>
+      <c r="I178" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E179" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F179" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G179" s="2">
+        <v>46</v>
+      </c>
+      <c r="H179" s="2">
+        <v>30</v>
+      </c>
+      <c r="I179" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E180" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G180" s="2">
+        <v>46</v>
+      </c>
+      <c r="H180" s="2">
+        <v>30</v>
+      </c>
+      <c r="I180" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="2">
+        <v>9395</v>
+      </c>
+      <c r="E181" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F181" s="2">
+        <v>-6710</v>
+      </c>
+      <c r="G181" s="2">
+        <v>20</v>
+      </c>
+      <c r="H181" s="2">
+        <v>30</v>
+      </c>
+      <c r="I181" s="2">
+        <v>10</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="2">
+        <v>12531</v>
+      </c>
+      <c r="E182" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F182" s="2">
+        <v>-3574</v>
+      </c>
+      <c r="G182" s="2">
+        <v>40</v>
+      </c>
+      <c r="H182" s="2">
+        <v>30</v>
+      </c>
+      <c r="I182" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2">
+        <v>12769</v>
+      </c>
+      <c r="E183" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F183" s="2">
+        <v>-3336</v>
+      </c>
+      <c r="G183" s="2">
+        <v>30</v>
+      </c>
+      <c r="H183" s="2">
+        <v>30</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" s="2">
+        <v>15410</v>
+      </c>
+      <c r="E184" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F184" s="2">
+        <v>-695</v>
+      </c>
+      <c r="G184" s="2">
+        <v>30</v>
+      </c>
+      <c r="H184" s="2">
+        <v>30</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185" s="2">
+        <v>15410</v>
+      </c>
+      <c r="E185" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F185" s="2">
+        <v>-695</v>
+      </c>
+      <c r="G185" s="2">
+        <v>30</v>
+      </c>
+      <c r="H185" s="2">
+        <v>30</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E186" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G186" s="2">
+        <v>46</v>
+      </c>
+      <c r="H186" s="2">
+        <v>30</v>
+      </c>
+      <c r="I186" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E187" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G187" s="2">
+        <v>46</v>
+      </c>
+      <c r="H187" s="2">
+        <v>30</v>
+      </c>
+      <c r="I187" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E188" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F188" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G188" s="2">
+        <v>46</v>
+      </c>
+      <c r="H188" s="2">
+        <v>30</v>
+      </c>
+      <c r="I188" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" s="2">
+        <v>17285</v>
+      </c>
+      <c r="E189" s="2">
+        <v>16105</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1180</v>
+      </c>
+      <c r="G189" s="2">
+        <v>46</v>
+      </c>
+      <c r="H189" s="2">
+        <v>30</v>
+      </c>
+      <c r="I189" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K189" s="2" t="s">
         <v>15</v>
       </c>
     </row>
